--- a/Copa America 2016.xlsx
+++ b/Copa America 2016.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="30" windowWidth="9510" windowHeight="4710" tabRatio="542" activeTab="1"/>
+    <workbookView xWindow="5580" yWindow="30" windowWidth="9510" windowHeight="4710" tabRatio="542" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Grupos" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="57">
   <si>
     <t>GRUPO  A</t>
   </si>
@@ -186,9 +186,6 @@
 FINAL</t>
   </si>
   <si>
-    <t>CAMPEON 2016</t>
-  </si>
-  <si>
     <t>GRUPOS DE LA COPA AMERICA CENTENARIO 2016</t>
   </si>
   <si>
@@ -196,16 +193,13 @@
 Divididas en 4 Grupos</t>
   </si>
   <si>
-    <t>Suma</t>
-  </si>
-  <si>
-    <t>Promedio</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Recuento</t>
+    <t>TERCER LUGAR</t>
+  </si>
+  <si>
+    <t>VICE-CAMPEON</t>
+  </si>
+  <si>
+    <t>CAMPEON COPA AMERICA</t>
   </si>
 </sst>
 </file>
@@ -215,7 +209,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\ &quot;de&quot;\ mmmm\ &quot;de&quot;\ yyyy"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -295,13 +289,6 @@
     </font>
     <font>
       <b/>
-      <sz val="20"/>
-      <color indexed="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color indexed="9"/>
       <name val="Arial"/>
@@ -322,16 +309,30 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <sz val="36"/>
+      <sz val="26"/>
       <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="18"/>
+      <color indexed="9"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color indexed="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -360,7 +361,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -823,11 +824,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -999,153 +1031,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1155,11 +1040,209 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="12">
     <dxf>
       <font>
         <b/>
@@ -1209,38 +1292,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="9"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="21"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1251,6 +1302,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1283,10 +1341,51 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="21"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1304,6 +1403,38 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="21"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1318,7 +1449,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="R20:Y24" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="R20:Y24" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
   <autoFilter ref="R20:Y24"/>
   <sortState ref="R21:Y24">
     <sortCondition descending="1" ref="Y20:Y24"/>
@@ -1338,7 +1469,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="R12:Y16" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="R12:Y16" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="R12:Y16"/>
   <sortState ref="R13:Y16">
     <sortCondition descending="1" ref="Y12:Y16"/>
@@ -1358,10 +1489,30 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla6" displayName="Tabla6" ref="R4:Y8" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla6" displayName="Tabla6" ref="R4:Y8" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="R4:Y8"/>
   <sortState ref="R5:Y8">
     <sortCondition descending="1" ref="Y4:Y8"/>
+  </sortState>
+  <tableColumns count="8">
+    <tableColumn id="1" name="EQUIPO"/>
+    <tableColumn id="2" name="1P"/>
+    <tableColumn id="3" name="2P"/>
+    <tableColumn id="4" name="3P"/>
+    <tableColumn id="5" name="GF"/>
+    <tableColumn id="6" name="GC"/>
+    <tableColumn id="7" name="GD"/>
+    <tableColumn id="8" name="PTS"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="R28:Y32" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="R28:Y32"/>
+  <sortState ref="R29:Y32">
+    <sortCondition descending="1" ref="Y28:Y32"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" name="EQUIPO"/>
@@ -1693,26 +1844,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="76"/>
+    </row>
+    <row r="2" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="71"/>
-    </row>
-    <row r="2" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="72" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="74"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="79"/>
     </row>
     <row r="4" spans="2:9" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="62" t="s">
@@ -1805,8 +1956,8 @@
   </sheetPr>
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V36" sqref="V36"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1831,54 +1982,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="H1" s="76" t="s">
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="H1" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="77"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="92"/>
     </row>
     <row r="2" spans="1:25" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="80"/>
-      <c r="H2" s="75" t="s">
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="95"/>
+      <c r="H2" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
     </row>
     <row r="4" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="51"/>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
       <c r="I4" s="7" t="s">
         <v>14</v>
       </c>
@@ -1903,33 +2054,33 @@
       <c r="P4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="122" t="s">
+      <c r="R4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="122" t="s">
+      <c r="S4" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="122" t="s">
+      <c r="T4" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="U4" s="122" t="s">
+      <c r="U4" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="V4" s="122" t="s">
+      <c r="V4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="W4" s="122" t="s">
+      <c r="W4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="X4" s="122" t="s">
+      <c r="X4" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="Y4" s="122" t="s">
+      <c r="Y4" s="73" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="80" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="13" t="str">
@@ -1947,7 +2098,7 @@
       <c r="F5" s="28">
         <v>2</v>
       </c>
-      <c r="H5" s="83" t="s">
+      <c r="H5" s="80" t="s">
         <v>20</v>
       </c>
       <c r="I5" s="53" t="str">
@@ -1982,7 +2133,7 @@
         <f>SUM(J5:L5)</f>
         <v>6</v>
       </c>
-      <c r="R5" s="120" t="s">
+      <c r="R5" s="71" t="s">
         <v>50</v>
       </c>
       <c r="S5" s="54">
@@ -2008,7 +2159,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="84"/>
+      <c r="A6" s="81"/>
       <c r="B6" s="11" t="str">
         <f>Grupos!B7</f>
         <v>Costa Rica</v>
@@ -2024,7 +2175,7 @@
       <c r="F6" s="29">
         <v>0</v>
       </c>
-      <c r="H6" s="84"/>
+      <c r="H6" s="81"/>
       <c r="I6" s="56" t="str">
         <f>Grupos!B6</f>
         <v>Colombia</v>
@@ -2057,7 +2208,7 @@
         <f>SUM(J6:L6)</f>
         <v>6</v>
       </c>
-      <c r="R6" s="121" t="s">
+      <c r="R6" s="72" t="s">
         <v>38</v>
       </c>
       <c r="S6" s="57">
@@ -2083,7 +2234,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="84"/>
+      <c r="A7" s="81"/>
       <c r="B7" s="11" t="str">
         <f>Grupos!B5</f>
         <v>EE. UU.</v>
@@ -2099,7 +2250,7 @@
       <c r="F7" s="29">
         <v>0</v>
       </c>
-      <c r="H7" s="84"/>
+      <c r="H7" s="81"/>
       <c r="I7" s="56" t="str">
         <f>Grupos!B7</f>
         <v>Costa Rica</v>
@@ -2132,7 +2283,7 @@
         <f>SUM(J7:L7)</f>
         <v>4</v>
       </c>
-      <c r="R7" s="121" t="s">
+      <c r="R7" s="72" t="s">
         <v>7</v>
       </c>
       <c r="S7" s="57">
@@ -2158,7 +2309,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="84"/>
+      <c r="A8" s="81"/>
       <c r="B8" s="11" t="str">
         <f>Grupos!B6</f>
         <v>Colombia</v>
@@ -2174,7 +2325,7 @@
       <c r="F8" s="29">
         <v>1</v>
       </c>
-      <c r="H8" s="85"/>
+      <c r="H8" s="82"/>
       <c r="I8" s="59" t="str">
         <f>Grupos!B8</f>
         <v>Paraguay</v>
@@ -2207,33 +2358,33 @@
         <f>SUM(J8:L8)</f>
         <v>1</v>
       </c>
-      <c r="R8" s="118" t="s">
+      <c r="R8" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="S8" s="119">
-        <v>1</v>
-      </c>
-      <c r="T8" s="119">
-        <v>0</v>
-      </c>
-      <c r="U8" s="119">
-        <v>0</v>
-      </c>
-      <c r="V8" s="119">
-        <v>1</v>
-      </c>
-      <c r="W8" s="119">
-        <v>3</v>
-      </c>
-      <c r="X8" s="119">
+      <c r="S8" s="70">
+        <v>1</v>
+      </c>
+      <c r="T8" s="70">
+        <v>0</v>
+      </c>
+      <c r="U8" s="70">
+        <v>0</v>
+      </c>
+      <c r="V8" s="70">
+        <v>1</v>
+      </c>
+      <c r="W8" s="70">
+        <v>3</v>
+      </c>
+      <c r="X8" s="70">
         <v>-2</v>
       </c>
-      <c r="Y8" s="119">
+      <c r="Y8" s="70">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="84"/>
+      <c r="A9" s="81"/>
       <c r="B9" s="11" t="str">
         <f>Grupos!B5</f>
         <v>EE. UU.</v>
@@ -2251,7 +2402,7 @@
       </c>
     </row>
     <row r="10" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="85"/>
+      <c r="A10" s="82"/>
       <c r="B10" s="15" t="str">
         <f>Grupos!B6</f>
         <v>Colombia</v>
@@ -2274,13 +2425,13 @@
     </row>
     <row r="11" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
       <c r="I12" s="7" t="s">
         <v>14</v>
       </c>
@@ -2305,33 +2456,33 @@
       <c r="P12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="R12" s="122" t="s">
+      <c r="R12" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="S12" s="122" t="s">
+      <c r="S12" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="T12" s="122" t="s">
+      <c r="T12" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="U12" s="122" t="s">
+      <c r="U12" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="V12" s="122" t="s">
+      <c r="V12" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="W12" s="122" t="s">
+      <c r="W12" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="X12" s="122" t="s">
+      <c r="X12" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="Y12" s="122" t="s">
+      <c r="Y12" s="73" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="83" t="s">
+      <c r="A13" s="80" t="s">
         <v>47</v>
       </c>
       <c r="B13" s="17" t="str">
@@ -2349,7 +2500,7 @@
       <c r="F13" s="34">
         <v>0</v>
       </c>
-      <c r="H13" s="83" t="s">
+      <c r="H13" s="80" t="s">
         <v>22</v>
       </c>
       <c r="I13" s="53" t="str">
@@ -2384,7 +2535,7 @@
         <f>SUM(J13:L13)</f>
         <v>4</v>
       </c>
-      <c r="R13" s="120" t="s">
+      <c r="R13" s="71" t="s">
         <v>40</v>
       </c>
       <c r="S13" s="54">
@@ -2410,7 +2561,7 @@
       </c>
     </row>
     <row r="14" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="86"/>
+      <c r="A14" s="83"/>
       <c r="B14" s="20" t="str">
         <f>Grupos!D7</f>
         <v>Haiti</v>
@@ -2426,7 +2577,7 @@
       <c r="F14" s="35">
         <v>1</v>
       </c>
-      <c r="H14" s="84"/>
+      <c r="H14" s="81"/>
       <c r="I14" s="56" t="str">
         <f>Grupos!D6</f>
         <v>Ecuador</v>
@@ -2459,7 +2610,7 @@
         <f>SUM(J14:L14)</f>
         <v>5</v>
       </c>
-      <c r="R14" s="121" t="s">
+      <c r="R14" s="72" t="s">
         <v>8</v>
       </c>
       <c r="S14" s="57">
@@ -2485,7 +2636,7 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="86"/>
+      <c r="A15" s="83"/>
       <c r="B15" s="20" t="str">
         <f>Grupos!D5</f>
         <v>Brasil</v>
@@ -2501,7 +2652,7 @@
       <c r="F15" s="35">
         <v>1</v>
       </c>
-      <c r="H15" s="84"/>
+      <c r="H15" s="81"/>
       <c r="I15" s="56" t="str">
         <f>Grupos!D7</f>
         <v>Haiti</v>
@@ -2534,7 +2685,7 @@
         <f>SUM(J15:L15)</f>
         <v>0</v>
       </c>
-      <c r="R15" s="121" t="s">
+      <c r="R15" s="72" t="s">
         <v>6</v>
       </c>
       <c r="S15" s="57">
@@ -2560,7 +2711,7 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="86"/>
+      <c r="A16" s="83"/>
       <c r="B16" s="20" t="str">
         <f>Grupos!D6</f>
         <v>Ecuador</v>
@@ -2576,7 +2727,7 @@
       <c r="F16" s="35">
         <v>2</v>
       </c>
-      <c r="H16" s="85"/>
+      <c r="H16" s="82"/>
       <c r="I16" s="59" t="str">
         <f>Grupos!D8</f>
         <v>Perú</v>
@@ -2609,33 +2760,33 @@
         <f>SUM(J16:L16)</f>
         <v>7</v>
       </c>
-      <c r="R16" s="118" t="s">
+      <c r="R16" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="S16" s="119">
-        <v>0</v>
-      </c>
-      <c r="T16" s="119">
-        <v>0</v>
-      </c>
-      <c r="U16" s="119">
-        <v>0</v>
-      </c>
-      <c r="V16" s="119">
+      <c r="S16" s="70">
+        <v>0</v>
+      </c>
+      <c r="T16" s="70">
+        <v>0</v>
+      </c>
+      <c r="U16" s="70">
+        <v>0</v>
+      </c>
+      <c r="V16" s="70">
         <v>7</v>
       </c>
-      <c r="W16" s="119">
+      <c r="W16" s="70">
         <v>2</v>
       </c>
-      <c r="X16" s="119">
+      <c r="X16" s="70">
         <v>5</v>
       </c>
-      <c r="Y16" s="119">
+      <c r="Y16" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="86"/>
+      <c r="A17" s="83"/>
       <c r="B17" s="20" t="str">
         <f>Grupos!D5</f>
         <v>Brasil</v>
@@ -2653,7 +2804,7 @@
       </c>
     </row>
     <row r="18" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="87"/>
+      <c r="A18" s="84"/>
       <c r="B18" s="19" t="str">
         <f>Grupos!D6</f>
         <v>Ecuador</v>
@@ -2672,13 +2823,13 @@
     </row>
     <row r="19" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="81" t="s">
+      <c r="B20" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89"/>
       <c r="I20" s="7" t="s">
         <v>14</v>
       </c>
@@ -2703,33 +2854,33 @@
       <c r="P20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="R20" s="122" t="s">
+      <c r="R20" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="S20" s="122" t="s">
+      <c r="S20" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="T20" s="122" t="s">
+      <c r="T20" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="U20" s="122" t="s">
+      <c r="U20" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="V20" s="122" t="s">
+      <c r="V20" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="W20" s="122" t="s">
+      <c r="W20" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="X20" s="122" t="s">
+      <c r="X20" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="Y20" s="122" t="s">
+      <c r="Y20" s="73" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="88" t="s">
+      <c r="A21" s="85" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="22" t="str">
@@ -2747,7 +2898,7 @@
       <c r="F21" s="34">
         <v>1</v>
       </c>
-      <c r="H21" s="83" t="s">
+      <c r="H21" s="80" t="s">
         <v>21</v>
       </c>
       <c r="I21" s="53" t="str">
@@ -2782,7 +2933,7 @@
         <f>SUM(J21:L21)</f>
         <v>7</v>
       </c>
-      <c r="R21" s="120" t="s">
+      <c r="R21" s="71" t="s">
         <v>41</v>
       </c>
       <c r="S21" s="54">
@@ -2808,7 +2959,7 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="89"/>
+      <c r="A22" s="86"/>
       <c r="B22" s="24" t="str">
         <f>Grupos!F7</f>
         <v>Jamaica</v>
@@ -2824,7 +2975,7 @@
       <c r="F22" s="35">
         <v>1</v>
       </c>
-      <c r="H22" s="84"/>
+      <c r="H22" s="81"/>
       <c r="I22" s="56" t="str">
         <f>Grupos!F6</f>
         <v>Uruguay</v>
@@ -2857,7 +3008,7 @@
         <f>SUM(J22:L22)</f>
         <v>3</v>
       </c>
-      <c r="R22" s="121" t="s">
+      <c r="R22" s="72" t="s">
         <v>43</v>
       </c>
       <c r="S22" s="57">
@@ -2883,7 +3034,7 @@
       </c>
     </row>
     <row r="23" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="89"/>
+      <c r="A23" s="86"/>
       <c r="B23" s="24" t="str">
         <f>Grupos!F5</f>
         <v>Mexico</v>
@@ -2899,7 +3050,7 @@
       <c r="F23" s="35">
         <v>0</v>
       </c>
-      <c r="H23" s="84"/>
+      <c r="H23" s="81"/>
       <c r="I23" s="56" t="str">
         <f>Grupos!F7</f>
         <v>Jamaica</v>
@@ -2932,7 +3083,7 @@
         <f>SUM(J23:L23)</f>
         <v>0</v>
       </c>
-      <c r="R23" s="121" t="s">
+      <c r="R23" s="72" t="s">
         <v>1</v>
       </c>
       <c r="S23" s="57">
@@ -2958,7 +3109,7 @@
       </c>
     </row>
     <row r="24" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="89"/>
+      <c r="A24" s="86"/>
       <c r="B24" s="24" t="str">
         <f>Grupos!F6</f>
         <v>Uruguay</v>
@@ -2974,7 +3125,7 @@
       <c r="F24" s="35">
         <v>1</v>
       </c>
-      <c r="H24" s="85"/>
+      <c r="H24" s="82"/>
       <c r="I24" s="59" t="str">
         <f>Grupos!F8</f>
         <v>Venezuela</v>
@@ -3007,33 +3158,33 @@
         <f>SUM(J24:L24)</f>
         <v>7</v>
       </c>
-      <c r="R24" s="118" t="s">
+      <c r="R24" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="S24" s="119">
-        <v>0</v>
-      </c>
-      <c r="T24" s="119">
-        <v>0</v>
-      </c>
-      <c r="U24" s="119">
-        <v>0</v>
-      </c>
-      <c r="V24" s="119">
+      <c r="S24" s="70">
+        <v>0</v>
+      </c>
+      <c r="T24" s="70">
+        <v>0</v>
+      </c>
+      <c r="U24" s="70">
+        <v>0</v>
+      </c>
+      <c r="V24" s="70">
         <v>2</v>
       </c>
-      <c r="W24" s="119">
-        <v>1</v>
-      </c>
-      <c r="X24" s="119">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="119">
+      <c r="W24" s="70">
+        <v>1</v>
+      </c>
+      <c r="X24" s="70">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="89"/>
+      <c r="A25" s="86"/>
       <c r="B25" s="24" t="str">
         <f>Grupos!F5</f>
         <v>Mexico</v>
@@ -3051,7 +3202,7 @@
       </c>
     </row>
     <row r="26" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="90"/>
+      <c r="A26" s="87"/>
       <c r="B26" s="23" t="str">
         <f>Grupos!F6</f>
         <v>Uruguay</v>
@@ -3070,13 +3221,13 @@
     </row>
     <row r="27" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="81" t="s">
+      <c r="B28" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="82"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
       <c r="I28" s="7" t="s">
         <v>14</v>
       </c>
@@ -3101,9 +3252,33 @@
       <c r="P28" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="R28" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="S28" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="T28" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="U28" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="V28" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="W28" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="X28" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y28" s="73" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="29" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="88" t="s">
+      <c r="A29" s="85" t="s">
         <v>48</v>
       </c>
       <c r="B29" s="22" t="str">
@@ -3121,7 +3296,7 @@
       <c r="F29" s="34">
         <v>1</v>
       </c>
-      <c r="H29" s="83" t="s">
+      <c r="H29" s="80" t="s">
         <v>23</v>
       </c>
       <c r="I29" s="53" t="str">
@@ -3138,11 +3313,11 @@
       </c>
       <c r="L29" s="54">
         <f>IF(C33&gt;F33,3,IF(C33=F33,1,0))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M29" s="54">
         <f>SUM(C29,C31,C33)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N29" s="54">
         <f>SUM(F29,F31,F33)</f>
@@ -3150,15 +3325,39 @@
       </c>
       <c r="O29" s="54">
         <f>M29-N29</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P29" s="55">
         <f>SUM(J29:L29)</f>
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="R29" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="S29" s="54">
+        <v>3</v>
+      </c>
+      <c r="T29" s="54">
+        <v>3</v>
+      </c>
+      <c r="U29" s="54">
+        <v>3</v>
+      </c>
+      <c r="V29" s="54">
+        <v>9</v>
+      </c>
+      <c r="W29" s="54">
+        <v>1</v>
+      </c>
+      <c r="X29" s="54">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="54">
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="89"/>
+      <c r="A30" s="86"/>
       <c r="B30" s="24" t="str">
         <f>Grupos!H7</f>
         <v>Panamá</v>
@@ -3174,7 +3373,7 @@
       <c r="F30" s="35">
         <v>1</v>
       </c>
-      <c r="H30" s="84"/>
+      <c r="H30" s="81"/>
       <c r="I30" s="56" t="str">
         <f>Grupos!H6</f>
         <v>Chile</v>
@@ -3189,27 +3388,51 @@
       </c>
       <c r="L30" s="57">
         <f>IF(C34&gt;F34,3,IF(C34=F34,1,0))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M30" s="57">
         <f>SUM(F29,C32,C34)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N30" s="57">
         <f>SUM(C29,F32,F34)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O30" s="57">
         <f>M30-N30</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P30" s="58">
         <f>SUM(J30:L30)</f>
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="R30" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="S30" s="57">
+        <v>0</v>
+      </c>
+      <c r="T30" s="57">
+        <v>3</v>
+      </c>
+      <c r="U30" s="57">
+        <v>3</v>
+      </c>
+      <c r="V30" s="57">
+        <v>7</v>
+      </c>
+      <c r="W30" s="57">
+        <v>5</v>
+      </c>
+      <c r="X30" s="57">
+        <v>2</v>
+      </c>
+      <c r="Y30" s="57">
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="89"/>
+      <c r="A31" s="86"/>
       <c r="B31" s="24" t="str">
         <f>Grupos!H5</f>
         <v>Argentina</v>
@@ -3225,7 +3448,7 @@
       <c r="F31" s="35">
         <v>0</v>
       </c>
-      <c r="H31" s="84"/>
+      <c r="H31" s="81"/>
       <c r="I31" s="56" t="str">
         <f>Grupos!H7</f>
         <v>Panamá</v>
@@ -3240,27 +3463,51 @@
       </c>
       <c r="L31" s="57">
         <f>IF(C34&lt;F34,3,IF(C34=F34,1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" s="57">
         <f>SUM(C30,F31,F34)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N31" s="57">
         <f>SUM(F30,C31,C34)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O31" s="57">
         <f>M31-N31</f>
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="P31" s="58">
         <f>SUM(J31:L31)</f>
+        <v>3</v>
+      </c>
+      <c r="R31" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="S31" s="57">
+        <v>3</v>
+      </c>
+      <c r="T31" s="57">
+        <v>0</v>
+      </c>
+      <c r="U31" s="57">
+        <v>0</v>
+      </c>
+      <c r="V31" s="57">
         <v>4</v>
       </c>
+      <c r="W31" s="57">
+        <v>10</v>
+      </c>
+      <c r="X31" s="57">
+        <v>-6</v>
+      </c>
+      <c r="Y31" s="57">
+        <v>3</v>
+      </c>
     </row>
     <row r="32" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="89"/>
+      <c r="A32" s="86"/>
       <c r="B32" s="24" t="str">
         <f>Grupos!H6</f>
         <v>Chile</v>
@@ -3276,7 +3523,7 @@
       <c r="F32" s="35">
         <v>1</v>
       </c>
-      <c r="H32" s="85"/>
+      <c r="H32" s="82"/>
       <c r="I32" s="59" t="str">
         <f>Grupos!H8</f>
         <v>Bolivia</v>
@@ -3291,7 +3538,7 @@
       </c>
       <c r="L32" s="60">
         <f>IF(C33&lt;F33,3,IF(C33=F33,1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" s="60">
         <f>SUM(F30,F32,F33)</f>
@@ -3299,48 +3546,86 @@
       </c>
       <c r="N32" s="60">
         <f>SUM(C30,C32,C33)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O32" s="60">
         <f>M32-N32</f>
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="P32" s="61">
         <f>SUM(J32:L32)</f>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R32" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="S32" s="70">
+        <v>0</v>
+      </c>
+      <c r="T32" s="70">
+        <v>0</v>
+      </c>
+      <c r="U32" s="70">
+        <v>0</v>
+      </c>
+      <c r="V32" s="70">
+        <v>2</v>
+      </c>
+      <c r="W32" s="70">
+        <v>6</v>
+      </c>
+      <c r="X32" s="70">
+        <v>-4</v>
+      </c>
+      <c r="Y32" s="70">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="89"/>
+      <c r="A33" s="86"/>
       <c r="B33" s="24" t="str">
         <f>Grupos!H5</f>
         <v>Argentina</v>
       </c>
-      <c r="C33" s="35"/>
+      <c r="C33" s="35">
+        <v>2</v>
+      </c>
       <c r="D33" s="35"/>
       <c r="E33" s="21" t="str">
         <f>Grupos!H8</f>
         <v>Bolivia</v>
       </c>
-      <c r="F33" s="35"/>
+      <c r="F33" s="35">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="90"/>
+      <c r="A34" s="87"/>
       <c r="B34" s="23" t="str">
         <f>Grupos!H6</f>
         <v>Chile</v>
       </c>
-      <c r="C34" s="36"/>
+      <c r="C34" s="36">
+        <v>4</v>
+      </c>
       <c r="D34" s="36"/>
       <c r="E34" s="6" t="str">
         <f>Grupos!H7</f>
         <v>Panamá</v>
       </c>
-      <c r="F34" s="36"/>
+      <c r="F34" s="36">
+        <v>2</v>
+      </c>
     </row>
     <row r="35" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="H2:P2"/>
+    <mergeCell ref="H1:P1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A13:A18"/>
     <mergeCell ref="A21:A26"/>
@@ -3351,12 +3636,6 @@
     <mergeCell ref="H29:H32"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="B20:F20"/>
-    <mergeCell ref="H2:P2"/>
-    <mergeCell ref="H1:P1"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B4:F4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -3366,20 +3645,21 @@
   <ignoredErrors>
     <ignoredError sqref="B6 B8:B9 E7 B22 B24:B25 B16:B17 B14 E15 E23 B30 B32:B33 E31" formula="1"/>
   </ignoredErrors>
-  <tableParts count="3">
+  <tableParts count="4">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:T23"/>
+  <dimension ref="B1:T22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3403,267 +3683,378 @@
     <col min="24" max="24" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="114" t="s">
+    <row r="1" spans="2:20" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="116"/>
-    </row>
-    <row r="3" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:20" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="110" t="s">
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="121"/>
+      <c r="K1" s="122" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="124"/>
+    </row>
+    <row r="2" spans="2:20" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="108" t="str">
+        <f>IF(E17&gt;H17,C17,F17)</f>
+        <v>Chile</v>
+      </c>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="116"/>
+    </row>
+    <row r="3" spans="2:20" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C3" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="104"/>
-    </row>
-    <row r="5" spans="2:20" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="113"/>
-      <c r="C5" s="44" t="s">
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="102"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="117"/>
+    </row>
+    <row r="4" spans="2:20" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="98"/>
+      <c r="C4" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="38" t="str">
-        <f>'Primera Fase'!I5</f>
+      <c r="D4" s="38" t="str">
+        <f>'Primera Fase'!R5</f>
         <v>EE. UU.</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="47" t="s">
+      <c r="E4" s="41"/>
+      <c r="F4" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="38" t="str">
-        <f>'Primera Fase'!I14</f>
+      <c r="G4" s="38" t="str">
+        <f>'Primera Fase'!R14</f>
         <v>Ecuador</v>
       </c>
-      <c r="H5" s="65"/>
-      <c r="T5" s="37"/>
-    </row>
-    <row r="6" spans="2:20" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="113"/>
+      <c r="H4" s="65"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="117"/>
+      <c r="T4" s="37"/>
+    </row>
+    <row r="5" spans="2:20" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="98"/>
+      <c r="C5" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="39" t="str">
+        <f>'Primera Fase'!R13</f>
+        <v>Perú</v>
+      </c>
+      <c r="E5" s="49"/>
+      <c r="F5" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="39" t="str">
+        <f>Tabla6[[#This Row],[EQUIPO]]</f>
+        <v>EE. UU.</v>
+      </c>
+      <c r="H5" s="66"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="111"/>
+      <c r="O5" s="111"/>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="117"/>
+    </row>
+    <row r="6" spans="2:20" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="98"/>
       <c r="C6" s="45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" s="39" t="str">
-        <f>'Primera Fase'!I13</f>
-        <v>Brasil</v>
+        <f>'Primera Fase'!R29</f>
+        <v>Argentina</v>
       </c>
       <c r="E6" s="49"/>
       <c r="F6" s="42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G6" s="39" t="str">
-        <f>'Primera Fase'!I6</f>
-        <v>Colombia</v>
+        <f>'Primera Fase'!R22</f>
+        <v>Venezuela</v>
       </c>
       <c r="H6" s="66"/>
-    </row>
-    <row r="7" spans="2:20" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="113"/>
-      <c r="C7" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="66"/>
-      <c r="T7" s="37"/>
-    </row>
-    <row r="8" spans="2:20" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="111"/>
-      <c r="C8" s="46" t="s">
+      <c r="K6" s="112"/>
+      <c r="L6" s="113"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="113"/>
+      <c r="O6" s="113"/>
+      <c r="P6" s="113"/>
+      <c r="Q6" s="118"/>
+      <c r="T6" s="37"/>
+    </row>
+    <row r="7" spans="2:20" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="99"/>
+      <c r="C7" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="43" t="s">
+      <c r="D7" s="40" t="str">
+        <f>'Primera Fase'!R21</f>
+        <v>Mexico</v>
+      </c>
+      <c r="E7" s="48"/>
+      <c r="F7" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="40"/>
-      <c r="H8" s="67"/>
-    </row>
-    <row r="9" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:20" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="110" t="s">
+      <c r="G7" s="40" t="str">
+        <f>'Primera Fase'!R30</f>
+        <v>Chile</v>
+      </c>
+      <c r="H7" s="67"/>
+    </row>
+    <row r="8" spans="2:20" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K8" s="126" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="127"/>
+      <c r="M8" s="127"/>
+      <c r="N8" s="127"/>
+      <c r="O8" s="127"/>
+      <c r="P8" s="127"/>
+      <c r="Q8" s="128"/>
+    </row>
+    <row r="9" spans="2:20" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="105" t="s">
+      <c r="C9" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="102"/>
+      <c r="K9" s="129"/>
+      <c r="L9" s="125"/>
+      <c r="M9" s="125"/>
+      <c r="N9" s="125"/>
+      <c r="O9" s="125"/>
+      <c r="P9" s="125"/>
+      <c r="Q9" s="130"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+    </row>
+    <row r="10" spans="2:20" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="98"/>
+      <c r="C10" s="103" t="str">
+        <f>IF(E4&gt;H4,D4,G4)</f>
+        <v>Ecuador</v>
+      </c>
+      <c r="D10" s="96"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="96" t="str">
+        <f>IF(E5&gt;H5,D5,G5)</f>
+        <v>EE. UU.</v>
+      </c>
+      <c r="G10" s="96"/>
+      <c r="H10" s="65"/>
+      <c r="K10" s="131" t="str">
+        <f>IF(E17&gt;H17,C17,F17)</f>
+        <v>Chile</v>
+      </c>
+      <c r="L10" s="132"/>
+      <c r="M10" s="132"/>
+      <c r="N10" s="132"/>
+      <c r="O10" s="132"/>
+      <c r="P10" s="132"/>
+      <c r="Q10" s="133"/>
       <c r="R10" s="37"/>
       <c r="S10" s="37"/>
     </row>
-    <row r="11" spans="2:20" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="113"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="65"/>
+    <row r="11" spans="2:20" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="99"/>
+      <c r="C11" s="104" t="str">
+        <f>IF(E6&gt;H6,D6,G6)</f>
+        <v>Venezuela</v>
+      </c>
+      <c r="D11" s="105"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="105" t="str">
+        <f>IF(E7&gt;H7,D7,G7)</f>
+        <v>Chile</v>
+      </c>
+      <c r="G11" s="105"/>
+      <c r="H11" s="67"/>
+      <c r="K11" s="134"/>
+      <c r="L11" s="135"/>
+      <c r="M11" s="135"/>
+      <c r="N11" s="135"/>
+      <c r="O11" s="135"/>
+      <c r="P11" s="135"/>
+      <c r="Q11" s="136"/>
       <c r="R11" s="37"/>
       <c r="S11" s="37"/>
     </row>
-    <row r="12" spans="2:20" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="111"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="67"/>
+    <row r="12" spans="2:20" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R12" s="37"/>
       <c r="S12" s="37"/>
     </row>
-    <row r="13" spans="2:20" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:20" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="114" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="102"/>
+      <c r="K13" s="126" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" s="127"/>
+      <c r="M13" s="127"/>
+      <c r="N13" s="127"/>
+      <c r="O13" s="127"/>
+      <c r="P13" s="127"/>
+      <c r="Q13" s="128"/>
       <c r="R13" s="37"/>
       <c r="S13" s="37"/>
     </row>
-    <row r="14" spans="2:20" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="106" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="102" t="s">
+    <row r="14" spans="2:20" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="115"/>
+      <c r="C14" s="106" t="str">
+        <f>IF(E10&gt;H10,C10,F10)</f>
+        <v>EE. UU.</v>
+      </c>
+      <c r="D14" s="107"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="107" t="str">
+        <f>IF(E11&gt;H11,C11,F11)</f>
+        <v>Chile</v>
+      </c>
+      <c r="G14" s="107"/>
+      <c r="H14" s="68"/>
+      <c r="K14" s="129"/>
+      <c r="L14" s="125"/>
+      <c r="M14" s="125"/>
+      <c r="N14" s="125"/>
+      <c r="O14" s="125"/>
+      <c r="P14" s="125"/>
+      <c r="Q14" s="130"/>
+    </row>
+    <row r="15" spans="2:20" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K15" s="131" t="str">
+        <f>IF(E14&gt;H14,C14,F14)</f>
+        <v>Chile</v>
+      </c>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="132"/>
+      <c r="O15" s="132"/>
+      <c r="P15" s="132"/>
+      <c r="Q15" s="133"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+    </row>
+    <row r="16" spans="2:20" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="97" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="104"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-    </row>
-    <row r="15" spans="2:20" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="107"/>
-      <c r="C15" s="100" t="str">
-        <f>IF(E11&gt;H11,F11,IF(E11&lt;H11,C11,""))</f>
-        <v/>
-      </c>
-      <c r="D15" s="101"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="101" t="str">
-        <f>IF(E12&gt;H12,F12,IF(E12&lt;H12,C12,""))</f>
-        <v/>
-      </c>
-      <c r="G15" s="101"/>
-      <c r="H15" s="68"/>
-    </row>
-    <row r="16" spans="2:20" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="102"/>
+      <c r="K16" s="138"/>
+      <c r="L16" s="137"/>
+      <c r="M16" s="137"/>
+      <c r="N16" s="137"/>
+      <c r="O16" s="137"/>
+      <c r="P16" s="137"/>
+      <c r="Q16" s="139"/>
       <c r="R16" s="37"/>
       <c r="S16" s="37"/>
     </row>
-    <row r="17" spans="2:19" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="110" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="105" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="105"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="105"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-    </row>
-    <row r="18" spans="2:19" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="111"/>
-      <c r="C18" s="100" t="str">
-        <f>IF(E11&gt;H11,C11,IF(E11&lt;H11,F11,""))</f>
-        <v/>
-      </c>
-      <c r="D18" s="101"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="101" t="str">
-        <f>IF(E12&gt;H12,C12,IF(E12&lt;H12,F12,""))</f>
-        <v/>
-      </c>
-      <c r="G18" s="101"/>
-      <c r="H18" s="68"/>
-    </row>
-    <row r="19" spans="2:19" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="2:19" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="97" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="99"/>
-    </row>
-    <row r="21" spans="2:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="91" t="str">
-        <f>IF(E18&gt;H18,C18,IF(E18&lt;H18,F18,""))</f>
-        <v/>
-      </c>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-    </row>
-    <row r="22" spans="2:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="93"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="94"/>
-    </row>
-    <row r="23" spans="2:19" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="95"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-    </row>
+    <row r="17" spans="2:17" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="99"/>
+      <c r="C17" s="106" t="str">
+        <f>IF(E10&gt;H10,C10,F10)</f>
+        <v>EE. UU.</v>
+      </c>
+      <c r="D17" s="107"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="107" t="str">
+        <f>IF(E11&gt;H11,C11,F11)</f>
+        <v>Chile</v>
+      </c>
+      <c r="G17" s="107"/>
+      <c r="H17" s="68"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="135"/>
+      <c r="M17" s="135"/>
+      <c r="N17" s="135"/>
+      <c r="O17" s="135"/>
+      <c r="P17" s="135"/>
+      <c r="Q17" s="136"/>
+    </row>
+    <row r="18" spans="2:17" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="23">
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="K2:Q6"/>
+    <mergeCell ref="K8:Q9"/>
+    <mergeCell ref="K10:Q11"/>
+    <mergeCell ref="K13:Q14"/>
+    <mergeCell ref="K15:Q17"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="K1:Q1"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="F11:G11"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B21:H23"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Copa America 2016.xlsx
+++ b/Copa America 2016.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="30" windowWidth="9510" windowHeight="4710" tabRatio="542" activeTab="2"/>
+    <workbookView xWindow="6510" yWindow="30" windowWidth="9510" windowHeight="4710" tabRatio="542" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Grupos" sheetId="1" r:id="rId1"/>
@@ -1058,6 +1058,30 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
     </xf>
@@ -1082,49 +1106,127 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1135,114 +1237,35 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1267,29 +1290,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1509,7 +1509,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="R28:Y32" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="R28:Y32" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="R28:Y32"/>
   <sortState ref="R29:Y32">
     <sortCondition descending="1" ref="Y28:Y32"/>
@@ -1989,47 +1989,47 @@
       <c r="D1" s="75"/>
       <c r="E1" s="75"/>
       <c r="F1" s="75"/>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="92"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="82"/>
     </row>
     <row r="2" spans="1:25" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="95"/>
-      <c r="H2" s="90" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="85"/>
+      <c r="H2" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
     </row>
     <row r="4" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="51"/>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
       <c r="I4" s="7" t="s">
         <v>14</v>
       </c>
@@ -2080,7 +2080,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="88" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="13" t="str">
@@ -2098,7 +2098,7 @@
       <c r="F5" s="28">
         <v>2</v>
       </c>
-      <c r="H5" s="80" t="s">
+      <c r="H5" s="88" t="s">
         <v>20</v>
       </c>
       <c r="I5" s="53" t="str">
@@ -2159,7 +2159,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="81"/>
+      <c r="A6" s="89"/>
       <c r="B6" s="11" t="str">
         <f>Grupos!B7</f>
         <v>Costa Rica</v>
@@ -2175,7 +2175,7 @@
       <c r="F6" s="29">
         <v>0</v>
       </c>
-      <c r="H6" s="81"/>
+      <c r="H6" s="89"/>
       <c r="I6" s="56" t="str">
         <f>Grupos!B6</f>
         <v>Colombia</v>
@@ -2234,7 +2234,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="81"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="11" t="str">
         <f>Grupos!B5</f>
         <v>EE. UU.</v>
@@ -2250,7 +2250,7 @@
       <c r="F7" s="29">
         <v>0</v>
       </c>
-      <c r="H7" s="81"/>
+      <c r="H7" s="89"/>
       <c r="I7" s="56" t="str">
         <f>Grupos!B7</f>
         <v>Costa Rica</v>
@@ -2309,7 +2309,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="81"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="11" t="str">
         <f>Grupos!B6</f>
         <v>Colombia</v>
@@ -2325,7 +2325,7 @@
       <c r="F8" s="29">
         <v>1</v>
       </c>
-      <c r="H8" s="82"/>
+      <c r="H8" s="90"/>
       <c r="I8" s="59" t="str">
         <f>Grupos!B8</f>
         <v>Paraguay</v>
@@ -2384,7 +2384,7 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="81"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="11" t="str">
         <f>Grupos!B5</f>
         <v>EE. UU.</v>
@@ -2402,7 +2402,7 @@
       </c>
     </row>
     <row r="10" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="82"/>
+      <c r="A10" s="90"/>
       <c r="B10" s="15" t="str">
         <f>Grupos!B6</f>
         <v>Colombia</v>
@@ -2425,13 +2425,13 @@
     </row>
     <row r="11" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="88" t="s">
+      <c r="B12" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
       <c r="I12" s="7" t="s">
         <v>14</v>
       </c>
@@ -2482,7 +2482,7 @@
       </c>
     </row>
     <row r="13" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="88" t="s">
         <v>47</v>
       </c>
       <c r="B13" s="17" t="str">
@@ -2500,7 +2500,7 @@
       <c r="F13" s="34">
         <v>0</v>
       </c>
-      <c r="H13" s="80" t="s">
+      <c r="H13" s="88" t="s">
         <v>22</v>
       </c>
       <c r="I13" s="53" t="str">
@@ -2561,7 +2561,7 @@
       </c>
     </row>
     <row r="14" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="83"/>
+      <c r="A14" s="91"/>
       <c r="B14" s="20" t="str">
         <f>Grupos!D7</f>
         <v>Haiti</v>
@@ -2577,7 +2577,7 @@
       <c r="F14" s="35">
         <v>1</v>
       </c>
-      <c r="H14" s="81"/>
+      <c r="H14" s="89"/>
       <c r="I14" s="56" t="str">
         <f>Grupos!D6</f>
         <v>Ecuador</v>
@@ -2636,7 +2636,7 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="83"/>
+      <c r="A15" s="91"/>
       <c r="B15" s="20" t="str">
         <f>Grupos!D5</f>
         <v>Brasil</v>
@@ -2652,7 +2652,7 @@
       <c r="F15" s="35">
         <v>1</v>
       </c>
-      <c r="H15" s="81"/>
+      <c r="H15" s="89"/>
       <c r="I15" s="56" t="str">
         <f>Grupos!D7</f>
         <v>Haiti</v>
@@ -2711,7 +2711,7 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="83"/>
+      <c r="A16" s="91"/>
       <c r="B16" s="20" t="str">
         <f>Grupos!D6</f>
         <v>Ecuador</v>
@@ -2727,7 +2727,7 @@
       <c r="F16" s="35">
         <v>2</v>
       </c>
-      <c r="H16" s="82"/>
+      <c r="H16" s="90"/>
       <c r="I16" s="59" t="str">
         <f>Grupos!D8</f>
         <v>Perú</v>
@@ -2786,7 +2786,7 @@
       </c>
     </row>
     <row r="17" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="83"/>
+      <c r="A17" s="91"/>
       <c r="B17" s="20" t="str">
         <f>Grupos!D5</f>
         <v>Brasil</v>
@@ -2804,7 +2804,7 @@
       </c>
     </row>
     <row r="18" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="84"/>
+      <c r="A18" s="92"/>
       <c r="B18" s="19" t="str">
         <f>Grupos!D6</f>
         <v>Ecuador</v>
@@ -2823,13 +2823,13 @@
     </row>
     <row r="19" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="88" t="s">
+      <c r="B20" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
       <c r="I20" s="7" t="s">
         <v>14</v>
       </c>
@@ -2880,7 +2880,7 @@
       </c>
     </row>
     <row r="21" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="85" t="s">
+      <c r="A21" s="93" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="22" t="str">
@@ -2898,7 +2898,7 @@
       <c r="F21" s="34">
         <v>1</v>
       </c>
-      <c r="H21" s="80" t="s">
+      <c r="H21" s="88" t="s">
         <v>21</v>
       </c>
       <c r="I21" s="53" t="str">
@@ -2959,7 +2959,7 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="86"/>
+      <c r="A22" s="94"/>
       <c r="B22" s="24" t="str">
         <f>Grupos!F7</f>
         <v>Jamaica</v>
@@ -2975,7 +2975,7 @@
       <c r="F22" s="35">
         <v>1</v>
       </c>
-      <c r="H22" s="81"/>
+      <c r="H22" s="89"/>
       <c r="I22" s="56" t="str">
         <f>Grupos!F6</f>
         <v>Uruguay</v>
@@ -3034,7 +3034,7 @@
       </c>
     </row>
     <row r="23" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="86"/>
+      <c r="A23" s="94"/>
       <c r="B23" s="24" t="str">
         <f>Grupos!F5</f>
         <v>Mexico</v>
@@ -3050,7 +3050,7 @@
       <c r="F23" s="35">
         <v>0</v>
       </c>
-      <c r="H23" s="81"/>
+      <c r="H23" s="89"/>
       <c r="I23" s="56" t="str">
         <f>Grupos!F7</f>
         <v>Jamaica</v>
@@ -3109,7 +3109,7 @@
       </c>
     </row>
     <row r="24" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="86"/>
+      <c r="A24" s="94"/>
       <c r="B24" s="24" t="str">
         <f>Grupos!F6</f>
         <v>Uruguay</v>
@@ -3125,7 +3125,7 @@
       <c r="F24" s="35">
         <v>1</v>
       </c>
-      <c r="H24" s="82"/>
+      <c r="H24" s="90"/>
       <c r="I24" s="59" t="str">
         <f>Grupos!F8</f>
         <v>Venezuela</v>
@@ -3184,7 +3184,7 @@
       </c>
     </row>
     <row r="25" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="86"/>
+      <c r="A25" s="94"/>
       <c r="B25" s="24" t="str">
         <f>Grupos!F5</f>
         <v>Mexico</v>
@@ -3202,7 +3202,7 @@
       </c>
     </row>
     <row r="26" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="87"/>
+      <c r="A26" s="95"/>
       <c r="B26" s="23" t="str">
         <f>Grupos!F6</f>
         <v>Uruguay</v>
@@ -3221,13 +3221,13 @@
     </row>
     <row r="27" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="88" t="s">
+      <c r="B28" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
       <c r="I28" s="7" t="s">
         <v>14</v>
       </c>
@@ -3278,7 +3278,7 @@
       </c>
     </row>
     <row r="29" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="85" t="s">
+      <c r="A29" s="93" t="s">
         <v>48</v>
       </c>
       <c r="B29" s="22" t="str">
@@ -3296,7 +3296,7 @@
       <c r="F29" s="34">
         <v>1</v>
       </c>
-      <c r="H29" s="80" t="s">
+      <c r="H29" s="88" t="s">
         <v>23</v>
       </c>
       <c r="I29" s="53" t="str">
@@ -3357,7 +3357,7 @@
       </c>
     </row>
     <row r="30" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="86"/>
+      <c r="A30" s="94"/>
       <c r="B30" s="24" t="str">
         <f>Grupos!H7</f>
         <v>Panamá</v>
@@ -3373,7 +3373,7 @@
       <c r="F30" s="35">
         <v>1</v>
       </c>
-      <c r="H30" s="81"/>
+      <c r="H30" s="89"/>
       <c r="I30" s="56" t="str">
         <f>Grupos!H6</f>
         <v>Chile</v>
@@ -3432,7 +3432,7 @@
       </c>
     </row>
     <row r="31" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="86"/>
+      <c r="A31" s="94"/>
       <c r="B31" s="24" t="str">
         <f>Grupos!H5</f>
         <v>Argentina</v>
@@ -3448,7 +3448,7 @@
       <c r="F31" s="35">
         <v>0</v>
       </c>
-      <c r="H31" s="81"/>
+      <c r="H31" s="89"/>
       <c r="I31" s="56" t="str">
         <f>Grupos!H7</f>
         <v>Panamá</v>
@@ -3507,7 +3507,7 @@
       </c>
     </row>
     <row r="32" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="86"/>
+      <c r="A32" s="94"/>
       <c r="B32" s="24" t="str">
         <f>Grupos!H6</f>
         <v>Chile</v>
@@ -3523,7 +3523,7 @@
       <c r="F32" s="35">
         <v>1</v>
       </c>
-      <c r="H32" s="82"/>
+      <c r="H32" s="90"/>
       <c r="I32" s="59" t="str">
         <f>Grupos!H8</f>
         <v>Bolivia</v>
@@ -3582,7 +3582,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="86"/>
+      <c r="A33" s="94"/>
       <c r="B33" s="24" t="str">
         <f>Grupos!H5</f>
         <v>Argentina</v>
@@ -3600,7 +3600,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="87"/>
+      <c r="A34" s="95"/>
       <c r="B34" s="23" t="str">
         <f>Grupos!H6</f>
         <v>Chile</v>
@@ -3620,12 +3620,6 @@
     <row r="35" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H2:P2"/>
-    <mergeCell ref="H1:P1"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A13:A18"/>
     <mergeCell ref="A21:A26"/>
@@ -3636,6 +3630,12 @@
     <mergeCell ref="H29:H32"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="B20:F20"/>
+    <mergeCell ref="H2:P2"/>
+    <mergeCell ref="H1:P1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B4:F4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -3659,7 +3659,7 @@
   <dimension ref="B1:T22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3684,59 +3684,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="134" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="121"/>
-      <c r="K1" s="122" t="s">
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="136"/>
+      <c r="K1" s="129" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="124"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="131"/>
     </row>
     <row r="2" spans="2:20" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K2" s="108" t="str">
+      <c r="K2" s="101" t="str">
         <f>IF(E17&gt;H17,C17,F17)</f>
         <v>Chile</v>
       </c>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="116"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="103"/>
     </row>
     <row r="3" spans="2:20" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="127" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="102"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="117"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="98"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="106"/>
     </row>
     <row r="4" spans="2:20" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="98"/>
+      <c r="B4" s="133"/>
       <c r="C4" s="44" t="s">
         <v>31</v>
       </c>
@@ -3744,7 +3744,9 @@
         <f>'Primera Fase'!R5</f>
         <v>EE. UU.</v>
       </c>
-      <c r="E4" s="41"/>
+      <c r="E4" s="41">
+        <v>2</v>
+      </c>
       <c r="F4" s="47" t="s">
         <v>27</v>
       </c>
@@ -3752,18 +3754,20 @@
         <f>'Primera Fase'!R14</f>
         <v>Ecuador</v>
       </c>
-      <c r="H4" s="65"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
-      <c r="N4" s="111"/>
-      <c r="O4" s="111"/>
-      <c r="P4" s="111"/>
-      <c r="Q4" s="117"/>
+      <c r="H4" s="65">
+        <v>1</v>
+      </c>
+      <c r="K4" s="104"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="106"/>
       <c r="T4" s="37"/>
     </row>
     <row r="5" spans="2:20" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="98"/>
+      <c r="B5" s="133"/>
       <c r="C5" s="45" t="s">
         <v>29</v>
       </c>
@@ -3776,20 +3780,20 @@
         <v>33</v>
       </c>
       <c r="G5" s="39" t="str">
-        <f>Tabla6[[#This Row],[EQUIPO]]</f>
-        <v>EE. UU.</v>
+        <f>'Primera Fase'!R6</f>
+        <v>Colombia</v>
       </c>
       <c r="H5" s="66"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="111"/>
-      <c r="M5" s="111"/>
-      <c r="N5" s="111"/>
-      <c r="O5" s="111"/>
-      <c r="P5" s="111"/>
-      <c r="Q5" s="117"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="106"/>
     </row>
     <row r="6" spans="2:20" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="98"/>
+      <c r="B6" s="133"/>
       <c r="C6" s="45" t="s">
         <v>30</v>
       </c>
@@ -3806,17 +3810,17 @@
         <v>Venezuela</v>
       </c>
       <c r="H6" s="66"/>
-      <c r="K6" s="112"/>
-      <c r="L6" s="113"/>
-      <c r="M6" s="113"/>
-      <c r="N6" s="113"/>
-      <c r="O6" s="113"/>
-      <c r="P6" s="113"/>
-      <c r="Q6" s="118"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="108"/>
+      <c r="O6" s="108"/>
+      <c r="P6" s="108"/>
+      <c r="Q6" s="109"/>
       <c r="T6" s="37"/>
     </row>
     <row r="7" spans="2:20" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="99"/>
+      <c r="B7" s="128"/>
       <c r="C7" s="46" t="s">
         <v>32</v>
       </c>
@@ -3835,86 +3839,86 @@
       <c r="H7" s="67"/>
     </row>
     <row r="8" spans="2:20" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K8" s="126" t="s">
+      <c r="K8" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="L8" s="127"/>
-      <c r="M8" s="127"/>
-      <c r="N8" s="127"/>
-      <c r="O8" s="127"/>
-      <c r="P8" s="127"/>
-      <c r="Q8" s="128"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="111"/>
+      <c r="Q8" s="112"/>
     </row>
     <row r="9" spans="2:20" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="102"/>
-      <c r="K9" s="129"/>
-      <c r="L9" s="125"/>
-      <c r="M9" s="125"/>
-      <c r="N9" s="125"/>
-      <c r="O9" s="125"/>
-      <c r="P9" s="125"/>
-      <c r="Q9" s="130"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="98"/>
+      <c r="K9" s="113"/>
+      <c r="L9" s="114"/>
+      <c r="M9" s="114"/>
+      <c r="N9" s="114"/>
+      <c r="O9" s="114"/>
+      <c r="P9" s="114"/>
+      <c r="Q9" s="115"/>
       <c r="R9" s="37"/>
       <c r="S9" s="37"/>
     </row>
     <row r="10" spans="2:20" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="98"/>
-      <c r="C10" s="103" t="str">
+      <c r="B10" s="133"/>
+      <c r="C10" s="137" t="str">
         <f>IF(E4&gt;H4,D4,G4)</f>
-        <v>Ecuador</v>
-      </c>
-      <c r="D10" s="96"/>
+        <v>EE. UU.</v>
+      </c>
+      <c r="D10" s="132"/>
       <c r="E10" s="41"/>
-      <c r="F10" s="96" t="str">
+      <c r="F10" s="132" t="str">
         <f>IF(E5&gt;H5,D5,G5)</f>
-        <v>EE. UU.</v>
-      </c>
-      <c r="G10" s="96"/>
+        <v>Colombia</v>
+      </c>
+      <c r="G10" s="132"/>
       <c r="H10" s="65"/>
-      <c r="K10" s="131" t="str">
+      <c r="K10" s="116" t="str">
         <f>IF(E17&gt;H17,C17,F17)</f>
         <v>Chile</v>
       </c>
-      <c r="L10" s="132"/>
-      <c r="M10" s="132"/>
-      <c r="N10" s="132"/>
-      <c r="O10" s="132"/>
-      <c r="P10" s="132"/>
-      <c r="Q10" s="133"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="117"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="117"/>
+      <c r="Q10" s="118"/>
       <c r="R10" s="37"/>
       <c r="S10" s="37"/>
     </row>
     <row r="11" spans="2:20" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="99"/>
-      <c r="C11" s="104" t="str">
+      <c r="B11" s="128"/>
+      <c r="C11" s="138" t="str">
         <f>IF(E6&gt;H6,D6,G6)</f>
         <v>Venezuela</v>
       </c>
-      <c r="D11" s="105"/>
+      <c r="D11" s="139"/>
       <c r="E11" s="48"/>
-      <c r="F11" s="105" t="str">
+      <c r="F11" s="139" t="str">
         <f>IF(E7&gt;H7,D7,G7)</f>
         <v>Chile</v>
       </c>
-      <c r="G11" s="105"/>
+      <c r="G11" s="139"/>
       <c r="H11" s="67"/>
-      <c r="K11" s="134"/>
-      <c r="L11" s="135"/>
-      <c r="M11" s="135"/>
-      <c r="N11" s="135"/>
-      <c r="O11" s="135"/>
-      <c r="P11" s="135"/>
-      <c r="Q11" s="136"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="120"/>
+      <c r="M11" s="120"/>
+      <c r="N11" s="120"/>
+      <c r="O11" s="120"/>
+      <c r="P11" s="120"/>
+      <c r="Q11" s="121"/>
       <c r="R11" s="37"/>
       <c r="S11" s="37"/>
     </row>
@@ -3923,108 +3927,108 @@
       <c r="S12" s="37"/>
     </row>
     <row r="13" spans="2:20" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="114" t="s">
+      <c r="B13" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="100" t="s">
+      <c r="C13" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="102"/>
-      <c r="K13" s="126" t="s">
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="98"/>
+      <c r="K13" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="L13" s="127"/>
-      <c r="M13" s="127"/>
-      <c r="N13" s="127"/>
-      <c r="O13" s="127"/>
-      <c r="P13" s="127"/>
-      <c r="Q13" s="128"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="112"/>
       <c r="R13" s="37"/>
       <c r="S13" s="37"/>
     </row>
     <row r="14" spans="2:20" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="115"/>
-      <c r="C14" s="106" t="str">
+      <c r="B14" s="100"/>
+      <c r="C14" s="125" t="str">
         <f>IF(E10&gt;H10,C10,F10)</f>
-        <v>EE. UU.</v>
-      </c>
-      <c r="D14" s="107"/>
+        <v>Colombia</v>
+      </c>
+      <c r="D14" s="126"/>
       <c r="E14" s="50"/>
-      <c r="F14" s="107" t="str">
+      <c r="F14" s="126" t="str">
         <f>IF(E11&gt;H11,C11,F11)</f>
         <v>Chile</v>
       </c>
-      <c r="G14" s="107"/>
+      <c r="G14" s="126"/>
       <c r="H14" s="68"/>
-      <c r="K14" s="129"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="125"/>
-      <c r="N14" s="125"/>
-      <c r="O14" s="125"/>
-      <c r="P14" s="125"/>
-      <c r="Q14" s="130"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="114"/>
+      <c r="N14" s="114"/>
+      <c r="O14" s="114"/>
+      <c r="P14" s="114"/>
+      <c r="Q14" s="115"/>
     </row>
     <row r="15" spans="2:20" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K15" s="131" t="str">
+      <c r="K15" s="116" t="str">
         <f>IF(E14&gt;H14,C14,F14)</f>
         <v>Chile</v>
       </c>
-      <c r="L15" s="132"/>
-      <c r="M15" s="132"/>
-      <c r="N15" s="132"/>
-      <c r="O15" s="132"/>
-      <c r="P15" s="132"/>
-      <c r="Q15" s="133"/>
+      <c r="L15" s="117"/>
+      <c r="M15" s="117"/>
+      <c r="N15" s="117"/>
+      <c r="O15" s="117"/>
+      <c r="P15" s="117"/>
+      <c r="Q15" s="118"/>
       <c r="R15" s="37"/>
       <c r="S15" s="37"/>
     </row>
     <row r="16" spans="2:20" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="97" t="s">
+      <c r="B16" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="100" t="s">
+      <c r="C16" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="102"/>
-      <c r="K16" s="138"/>
-      <c r="L16" s="137"/>
-      <c r="M16" s="137"/>
-      <c r="N16" s="137"/>
-      <c r="O16" s="137"/>
-      <c r="P16" s="137"/>
-      <c r="Q16" s="139"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="98"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="123"/>
+      <c r="M16" s="123"/>
+      <c r="N16" s="123"/>
+      <c r="O16" s="123"/>
+      <c r="P16" s="123"/>
+      <c r="Q16" s="124"/>
       <c r="R16" s="37"/>
       <c r="S16" s="37"/>
     </row>
     <row r="17" spans="2:17" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="99"/>
-      <c r="C17" s="106" t="str">
+      <c r="B17" s="128"/>
+      <c r="C17" s="125" t="str">
         <f>IF(E10&gt;H10,C10,F10)</f>
-        <v>EE. UU.</v>
-      </c>
-      <c r="D17" s="107"/>
+        <v>Colombia</v>
+      </c>
+      <c r="D17" s="126"/>
       <c r="E17" s="50"/>
-      <c r="F17" s="107" t="str">
+      <c r="F17" s="126" t="str">
         <f>IF(E11&gt;H11,C11,F11)</f>
         <v>Chile</v>
       </c>
-      <c r="G17" s="107"/>
+      <c r="G17" s="126"/>
       <c r="H17" s="68"/>
-      <c r="K17" s="134"/>
-      <c r="L17" s="135"/>
-      <c r="M17" s="135"/>
-      <c r="N17" s="135"/>
-      <c r="O17" s="135"/>
-      <c r="P17" s="135"/>
-      <c r="Q17" s="136"/>
+      <c r="K17" s="119"/>
+      <c r="L17" s="120"/>
+      <c r="M17" s="120"/>
+      <c r="N17" s="120"/>
+      <c r="O17" s="120"/>
+      <c r="P17" s="120"/>
+      <c r="Q17" s="121"/>
     </row>
     <row r="18" spans="2:17" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4032,6 +4036,17 @@
     <row r="22" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="K1:Q1"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:G11"/>
     <mergeCell ref="C13:H13"/>
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="B13:B14"/>
@@ -4043,18 +4058,7 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="K1:Q1"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="C9:H9"/>
     <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:G11"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Copa America 2016.xlsx
+++ b/Copa America 2016.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="30" windowWidth="9510" windowHeight="4710" tabRatio="542" activeTab="2"/>
+    <workbookView xWindow="10230" yWindow="30" windowWidth="9510" windowHeight="4710" tabRatio="542" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Grupos" sheetId="1" r:id="rId1"/>
@@ -1106,6 +1106,78 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1114,6 +1186,24 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1147,96 +1237,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1956,8 +1956,8 @@
   </sheetPr>
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3317,7 +3317,7 @@
       </c>
       <c r="M29" s="54">
         <f>SUM(C29,C31,C33)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N29" s="54">
         <f>SUM(F29,F31,F33)</f>
@@ -3325,7 +3325,7 @@
       </c>
       <c r="O29" s="54">
         <f>M29-N29</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P29" s="55">
         <f>SUM(J29:L29)</f>
@@ -3344,13 +3344,13 @@
         <v>3</v>
       </c>
       <c r="V29" s="54">
+        <v>10</v>
+      </c>
+      <c r="W29" s="54">
+        <v>1</v>
+      </c>
+      <c r="X29" s="54">
         <v>9</v>
-      </c>
-      <c r="W29" s="54">
-        <v>1</v>
-      </c>
-      <c r="X29" s="54">
-        <v>8</v>
       </c>
       <c r="Y29" s="54">
         <v>9</v>
@@ -3546,11 +3546,11 @@
       </c>
       <c r="N32" s="60">
         <f>SUM(C30,C32,C33)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O32" s="60">
         <f>M32-N32</f>
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="P32" s="61">
         <f>SUM(J32:L32)</f>
@@ -3572,10 +3572,10 @@
         <v>2</v>
       </c>
       <c r="W32" s="70">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X32" s="70">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="Y32" s="70">
         <v>0</v>
@@ -3588,7 +3588,7 @@
         <v>Argentina</v>
       </c>
       <c r="C33" s="35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" s="35"/>
       <c r="E33" s="21" t="str">
@@ -3659,7 +3659,7 @@
   <dimension ref="B1:T22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3684,59 +3684,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="136"/>
-      <c r="K1" s="129" t="s">
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="125"/>
+      <c r="K1" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="130"/>
-      <c r="O1" s="130"/>
-      <c r="P1" s="130"/>
-      <c r="Q1" s="131"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="118"/>
     </row>
     <row r="2" spans="2:20" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K2" s="101" t="str">
+      <c r="K2" s="131" t="str">
         <f>IF(E17&gt;H17,C17,F17)</f>
-        <v>Chile</v>
-      </c>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="103"/>
+        <v/>
+      </c>
+      <c r="L2" s="132"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="132"/>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="133"/>
     </row>
     <row r="3" spans="2:20" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="127" t="s">
+      <c r="B3" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="96" t="s">
+      <c r="C3" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="98"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="106"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="122"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="135"/>
+      <c r="N3" s="135"/>
+      <c r="O3" s="135"/>
+      <c r="P3" s="135"/>
+      <c r="Q3" s="136"/>
     </row>
     <row r="4" spans="2:20" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="133"/>
+      <c r="B4" s="98"/>
       <c r="C4" s="44" t="s">
         <v>31</v>
       </c>
@@ -3757,17 +3757,17 @@
       <c r="H4" s="65">
         <v>1</v>
       </c>
-      <c r="K4" s="104"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="106"/>
+      <c r="K4" s="134"/>
+      <c r="L4" s="135"/>
+      <c r="M4" s="135"/>
+      <c r="N4" s="135"/>
+      <c r="O4" s="135"/>
+      <c r="P4" s="135"/>
+      <c r="Q4" s="136"/>
       <c r="T4" s="37"/>
     </row>
     <row r="5" spans="2:20" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="133"/>
+      <c r="B5" s="98"/>
       <c r="C5" s="45" t="s">
         <v>29</v>
       </c>
@@ -3775,7 +3775,9 @@
         <f>'Primera Fase'!R13</f>
         <v>Perú</v>
       </c>
-      <c r="E5" s="49"/>
+      <c r="E5" s="49">
+        <v>2</v>
+      </c>
       <c r="F5" s="42" t="s">
         <v>33</v>
       </c>
@@ -3783,17 +3785,19 @@
         <f>'Primera Fase'!R6</f>
         <v>Colombia</v>
       </c>
-      <c r="H5" s="66"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="106"/>
+      <c r="H5" s="66">
+        <v>4</v>
+      </c>
+      <c r="K5" s="134"/>
+      <c r="L5" s="135"/>
+      <c r="M5" s="135"/>
+      <c r="N5" s="135"/>
+      <c r="O5" s="135"/>
+      <c r="P5" s="135"/>
+      <c r="Q5" s="136"/>
     </row>
     <row r="6" spans="2:20" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="133"/>
+      <c r="B6" s="98"/>
       <c r="C6" s="45" t="s">
         <v>30</v>
       </c>
@@ -3801,7 +3805,9 @@
         <f>'Primera Fase'!R29</f>
         <v>Argentina</v>
       </c>
-      <c r="E6" s="49"/>
+      <c r="E6" s="49">
+        <v>4</v>
+      </c>
       <c r="F6" s="42" t="s">
         <v>34</v>
       </c>
@@ -3809,18 +3815,20 @@
         <f>'Primera Fase'!R22</f>
         <v>Venezuela</v>
       </c>
-      <c r="H6" s="66"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="109"/>
+      <c r="H6" s="66">
+        <v>1</v>
+      </c>
+      <c r="K6" s="137"/>
+      <c r="L6" s="138"/>
+      <c r="M6" s="138"/>
+      <c r="N6" s="138"/>
+      <c r="O6" s="138"/>
+      <c r="P6" s="138"/>
+      <c r="Q6" s="139"/>
       <c r="T6" s="37"/>
     </row>
     <row r="7" spans="2:20" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="128"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="46" t="s">
         <v>32</v>
       </c>
@@ -3828,7 +3836,9 @@
         <f>'Primera Fase'!R21</f>
         <v>Mexico</v>
       </c>
-      <c r="E7" s="48"/>
+      <c r="E7" s="48">
+        <v>0</v>
+      </c>
       <c r="F7" s="43" t="s">
         <v>28</v>
       </c>
@@ -3836,89 +3846,91 @@
         <f>'Primera Fase'!R30</f>
         <v>Chile</v>
       </c>
-      <c r="H7" s="67"/>
+      <c r="H7" s="67">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="2:20" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K8" s="110" t="s">
+      <c r="K8" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="L8" s="111"/>
-      <c r="M8" s="111"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="111"/>
-      <c r="P8" s="111"/>
-      <c r="Q8" s="112"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="106"/>
+      <c r="Q8" s="107"/>
     </row>
     <row r="9" spans="2:20" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="127" t="s">
+      <c r="B9" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="96" t="s">
+      <c r="C9" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="98"/>
-      <c r="K9" s="113"/>
-      <c r="L9" s="114"/>
-      <c r="M9" s="114"/>
-      <c r="N9" s="114"/>
-      <c r="O9" s="114"/>
-      <c r="P9" s="114"/>
-      <c r="Q9" s="115"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="122"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="109"/>
+      <c r="N9" s="109"/>
+      <c r="O9" s="109"/>
+      <c r="P9" s="109"/>
+      <c r="Q9" s="110"/>
       <c r="R9" s="37"/>
       <c r="S9" s="37"/>
     </row>
     <row r="10" spans="2:20" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="133"/>
-      <c r="C10" s="137" t="str">
-        <f>IF(E4&gt;H4,D4,G4)</f>
+      <c r="B10" s="98"/>
+      <c r="C10" s="126" t="str">
+        <f>IF(E4&gt;H4,D4,IF(E4&lt;H4,G4,""))</f>
         <v>EE. UU.</v>
       </c>
-      <c r="D10" s="132"/>
+      <c r="D10" s="119"/>
       <c r="E10" s="41"/>
-      <c r="F10" s="132" t="str">
-        <f>IF(E5&gt;H5,D5,G5)</f>
+      <c r="F10" s="119" t="str">
+        <f>IF(E5&gt;H5,D5,IF(E5&lt;H5,G5,""))</f>
         <v>Colombia</v>
       </c>
-      <c r="G10" s="132"/>
+      <c r="G10" s="119"/>
       <c r="H10" s="65"/>
-      <c r="K10" s="116" t="str">
+      <c r="K10" s="99" t="str">
         <f>IF(E17&gt;H17,C17,F17)</f>
-        <v>Chile</v>
-      </c>
-      <c r="L10" s="117"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="117"/>
-      <c r="O10" s="117"/>
-      <c r="P10" s="117"/>
-      <c r="Q10" s="118"/>
+        <v/>
+      </c>
+      <c r="L10" s="100"/>
+      <c r="M10" s="100"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="100"/>
+      <c r="Q10" s="101"/>
       <c r="R10" s="37"/>
       <c r="S10" s="37"/>
     </row>
     <row r="11" spans="2:20" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="128"/>
-      <c r="C11" s="138" t="str">
-        <f>IF(E6&gt;H6,D6,G6)</f>
-        <v>Venezuela</v>
-      </c>
-      <c r="D11" s="139"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="127" t="str">
+        <f>IF(E6&gt;H6,D6,IF(E6&lt;H6,G6,""))</f>
+        <v>Argentina</v>
+      </c>
+      <c r="D11" s="128"/>
       <c r="E11" s="48"/>
-      <c r="F11" s="139" t="str">
-        <f>IF(E7&gt;H7,D7,G7)</f>
+      <c r="F11" s="128" t="str">
+        <f>IF(E7&gt;H7,D7,IF(E7&lt;H7,G7,""))</f>
         <v>Chile</v>
       </c>
-      <c r="G11" s="139"/>
+      <c r="G11" s="128"/>
       <c r="H11" s="67"/>
-      <c r="K11" s="119"/>
-      <c r="L11" s="120"/>
-      <c r="M11" s="120"/>
-      <c r="N11" s="120"/>
-      <c r="O11" s="120"/>
-      <c r="P11" s="120"/>
-      <c r="Q11" s="121"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="103"/>
+      <c r="M11" s="103"/>
+      <c r="N11" s="103"/>
+      <c r="O11" s="103"/>
+      <c r="P11" s="103"/>
+      <c r="Q11" s="104"/>
       <c r="R11" s="37"/>
       <c r="S11" s="37"/>
     </row>
@@ -3927,108 +3939,108 @@
       <c r="S12" s="37"/>
     </row>
     <row r="13" spans="2:20" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="99" t="s">
+      <c r="B13" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="96" t="s">
+      <c r="C13" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="98"/>
-      <c r="K13" s="110" t="s">
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="K13" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="L13" s="111"/>
-      <c r="M13" s="111"/>
-      <c r="N13" s="111"/>
-      <c r="O13" s="111"/>
-      <c r="P13" s="111"/>
-      <c r="Q13" s="112"/>
+      <c r="L13" s="106"/>
+      <c r="M13" s="106"/>
+      <c r="N13" s="106"/>
+      <c r="O13" s="106"/>
+      <c r="P13" s="106"/>
+      <c r="Q13" s="107"/>
       <c r="R13" s="37"/>
       <c r="S13" s="37"/>
     </row>
     <row r="14" spans="2:20" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="100"/>
-      <c r="C14" s="125" t="str">
-        <f>IF(E10&gt;H10,C10,F10)</f>
-        <v>Colombia</v>
-      </c>
-      <c r="D14" s="126"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="114" t="str">
+        <f>IF(E10&lt;H10,C10,IF(E10&gt;H10,F10,""))</f>
+        <v/>
+      </c>
+      <c r="D14" s="115"/>
       <c r="E14" s="50"/>
-      <c r="F14" s="126" t="str">
-        <f>IF(E11&gt;H11,C11,F11)</f>
-        <v>Chile</v>
-      </c>
-      <c r="G14" s="126"/>
+      <c r="F14" s="115" t="str">
+        <f>IF(E11&lt;H11,C11,IF(E11&gt;H11,F11,""))</f>
+        <v/>
+      </c>
+      <c r="G14" s="115"/>
       <c r="H14" s="68"/>
-      <c r="K14" s="113"/>
-      <c r="L14" s="114"/>
-      <c r="M14" s="114"/>
-      <c r="N14" s="114"/>
-      <c r="O14" s="114"/>
-      <c r="P14" s="114"/>
-      <c r="Q14" s="115"/>
+      <c r="K14" s="108"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="109"/>
+      <c r="N14" s="109"/>
+      <c r="O14" s="109"/>
+      <c r="P14" s="109"/>
+      <c r="Q14" s="110"/>
     </row>
     <row r="15" spans="2:20" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K15" s="116" t="str">
+      <c r="K15" s="99" t="str">
         <f>IF(E14&gt;H14,C14,F14)</f>
-        <v>Chile</v>
-      </c>
-      <c r="L15" s="117"/>
-      <c r="M15" s="117"/>
-      <c r="N15" s="117"/>
-      <c r="O15" s="117"/>
-      <c r="P15" s="117"/>
-      <c r="Q15" s="118"/>
+        <v/>
+      </c>
+      <c r="L15" s="100"/>
+      <c r="M15" s="100"/>
+      <c r="N15" s="100"/>
+      <c r="O15" s="100"/>
+      <c r="P15" s="100"/>
+      <c r="Q15" s="101"/>
       <c r="R15" s="37"/>
       <c r="S15" s="37"/>
     </row>
     <row r="16" spans="2:20" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="127" t="s">
+      <c r="B16" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="96" t="s">
+      <c r="C16" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="98"/>
-      <c r="K16" s="122"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="124"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="112"/>
+      <c r="M16" s="112"/>
+      <c r="N16" s="112"/>
+      <c r="O16" s="112"/>
+      <c r="P16" s="112"/>
+      <c r="Q16" s="113"/>
       <c r="R16" s="37"/>
       <c r="S16" s="37"/>
     </row>
     <row r="17" spans="2:17" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="128"/>
-      <c r="C17" s="125" t="str">
-        <f>IF(E10&gt;H10,C10,F10)</f>
-        <v>Colombia</v>
-      </c>
-      <c r="D17" s="126"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="114" t="str">
+        <f>IF(E10&gt;H10,C10,IF(E10&lt;H10,F10,""))</f>
+        <v/>
+      </c>
+      <c r="D17" s="115"/>
       <c r="E17" s="50"/>
-      <c r="F17" s="126" t="str">
-        <f>IF(E11&gt;H11,C11,F11)</f>
-        <v>Chile</v>
-      </c>
-      <c r="G17" s="126"/>
+      <c r="F17" s="115" t="str">
+        <f>IF(E11&gt;H11,C11,IF(E11&lt;H11,F11,""))</f>
+        <v/>
+      </c>
+      <c r="G17" s="115"/>
       <c r="H17" s="68"/>
-      <c r="K17" s="119"/>
-      <c r="L17" s="120"/>
-      <c r="M17" s="120"/>
-      <c r="N17" s="120"/>
-      <c r="O17" s="120"/>
-      <c r="P17" s="120"/>
-      <c r="Q17" s="121"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="103"/>
+      <c r="M17" s="103"/>
+      <c r="N17" s="103"/>
+      <c r="O17" s="103"/>
+      <c r="P17" s="103"/>
+      <c r="Q17" s="104"/>
     </row>
     <row r="18" spans="2:17" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4052,13 +4064,13 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="K2:Q6"/>
     <mergeCell ref="K8:Q9"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B3:B7"/>
     <mergeCell ref="K10:Q11"/>
     <mergeCell ref="K13:Q14"/>
     <mergeCell ref="K15:Q17"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B3:B7"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Copa America 2016.xlsx
+++ b/Copa America 2016.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10230" yWindow="30" windowWidth="9510" windowHeight="4710" tabRatio="542" activeTab="2"/>
+    <workbookView xWindow="12090" yWindow="30" windowWidth="9510" windowHeight="4710" tabRatio="542" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Grupos" sheetId="1" r:id="rId1"/>
@@ -209,7 +209,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\ &quot;de&quot;\ mmmm\ &quot;de&quot;\ yyyy"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -277,27 +277,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -322,15 +303,41 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color indexed="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="28"/>
+      <color indexed="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="28"/>
-      <color indexed="10"/>
+      <sz val="18"/>
+      <color indexed="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -943,7 +950,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1067,13 +1074,13 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1106,58 +1113,58 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1166,34 +1173,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1205,37 +1212,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3659,7 +3666,7 @@
   <dimension ref="B1:T22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3705,7 +3712,7 @@
     </row>
     <row r="2" spans="2:20" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K2" s="131" t="str">
-        <f>IF(E17&gt;H17,C17,F17)</f>
+        <f>IF(E17&gt;H17,C17,IF(E17&lt;H17,F17,""))</f>
         <v/>
       </c>
       <c r="L2" s="132"/>
@@ -3890,15 +3897,19 @@
         <v>EE. UU.</v>
       </c>
       <c r="D10" s="119"/>
-      <c r="E10" s="41"/>
+      <c r="E10" s="41">
+        <v>0</v>
+      </c>
       <c r="F10" s="119" t="str">
-        <f>IF(E5&gt;H5,D5,IF(E5&lt;H5,G5,""))</f>
-        <v>Colombia</v>
+        <f>IF(E6&gt;H6,D6,IF(E6&lt;H6,G6,""))</f>
+        <v>Argentina</v>
       </c>
       <c r="G10" s="119"/>
-      <c r="H10" s="65"/>
+      <c r="H10" s="65">
+        <v>4</v>
+      </c>
       <c r="K10" s="99" t="str">
-        <f>IF(E17&gt;H17,C17,F17)</f>
+        <f>IF(E17&gt;H17,C17,IF(E17&lt;H17,F17,""))</f>
         <v/>
       </c>
       <c r="L10" s="100"/>
@@ -3913,17 +3924,21 @@
     <row r="11" spans="2:20" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="97"/>
       <c r="C11" s="127" t="str">
-        <f>IF(E6&gt;H6,D6,IF(E6&lt;H6,G6,""))</f>
-        <v>Argentina</v>
+        <f>IF(E5&gt;H5,D5,IF(E5&lt;H5,G5,""))</f>
+        <v>Colombia</v>
       </c>
       <c r="D11" s="128"/>
-      <c r="E11" s="48"/>
+      <c r="E11" s="48">
+        <v>0</v>
+      </c>
       <c r="F11" s="128" t="str">
         <f>IF(E7&gt;H7,D7,IF(E7&lt;H7,G7,""))</f>
         <v>Chile</v>
       </c>
       <c r="G11" s="128"/>
-      <c r="H11" s="67"/>
+      <c r="H11" s="67">
+        <v>2</v>
+      </c>
       <c r="K11" s="102"/>
       <c r="L11" s="103"/>
       <c r="M11" s="103"/>
@@ -3966,13 +3981,13 @@
       <c r="B14" s="130"/>
       <c r="C14" s="114" t="str">
         <f>IF(E10&lt;H10,C10,IF(E10&gt;H10,F10,""))</f>
-        <v/>
+        <v>EE. UU.</v>
       </c>
       <c r="D14" s="115"/>
       <c r="E14" s="50"/>
       <c r="F14" s="115" t="str">
         <f>IF(E11&lt;H11,C11,IF(E11&gt;H11,F11,""))</f>
-        <v/>
+        <v>Colombia</v>
       </c>
       <c r="G14" s="115"/>
       <c r="H14" s="68"/>
@@ -3986,7 +4001,7 @@
     </row>
     <row r="15" spans="2:20" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K15" s="99" t="str">
-        <f>IF(E14&gt;H14,C14,F14)</f>
+        <f>IF(E14&gt;H14,C14,IF(E14&lt;H14,F14,""))</f>
         <v/>
       </c>
       <c r="L15" s="100"/>
@@ -4024,13 +4039,13 @@
       <c r="B17" s="97"/>
       <c r="C17" s="114" t="str">
         <f>IF(E10&gt;H10,C10,IF(E10&lt;H10,F10,""))</f>
-        <v/>
+        <v>Argentina</v>
       </c>
       <c r="D17" s="115"/>
       <c r="E17" s="50"/>
       <c r="F17" s="115" t="str">
         <f>IF(E11&gt;H11,C11,IF(E11&lt;H11,F11,""))</f>
-        <v/>
+        <v>Chile</v>
       </c>
       <c r="G17" s="115"/>
       <c r="H17" s="68"/>

--- a/Copa America 2016.xlsx
+++ b/Copa America 2016.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12090" yWindow="30" windowWidth="9510" windowHeight="4710" tabRatio="542" activeTab="2"/>
+    <workbookView xWindow="14880" yWindow="30" windowWidth="9510" windowHeight="4710" tabRatio="542" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Grupos" sheetId="1" r:id="rId1"/>
@@ -283,13 +283,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="72"/>
-      <color indexed="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -341,6 +334,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="48"/>
+      <color indexed="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -866,7 +866,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1047,6 +1047,9 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1065,6 +1068,36 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1074,175 +1107,136 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1851,26 +1845,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="77"/>
     </row>
     <row r="2" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="80"/>
     </row>
     <row r="4" spans="2:9" s="63" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="62" t="s">
@@ -1989,54 +1983,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="22.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="H1" s="81" t="s">
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="H1" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="82"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="93"/>
     </row>
     <row r="2" spans="1:25" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="85"/>
-      <c r="H2" s="80" t="s">
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="96"/>
+      <c r="H2" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
     </row>
     <row r="4" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="51"/>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
       <c r="I4" s="7" t="s">
         <v>14</v>
       </c>
@@ -2087,7 +2081,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="81" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="13" t="str">
@@ -2105,7 +2099,7 @@
       <c r="F5" s="28">
         <v>2</v>
       </c>
-      <c r="H5" s="88" t="s">
+      <c r="H5" s="81" t="s">
         <v>20</v>
       </c>
       <c r="I5" s="53" t="str">
@@ -2166,7 +2160,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="89"/>
+      <c r="A6" s="82"/>
       <c r="B6" s="11" t="str">
         <f>Grupos!B7</f>
         <v>Costa Rica</v>
@@ -2182,7 +2176,7 @@
       <c r="F6" s="29">
         <v>0</v>
       </c>
-      <c r="H6" s="89"/>
+      <c r="H6" s="82"/>
       <c r="I6" s="56" t="str">
         <f>Grupos!B6</f>
         <v>Colombia</v>
@@ -2241,7 +2235,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="89"/>
+      <c r="A7" s="82"/>
       <c r="B7" s="11" t="str">
         <f>Grupos!B5</f>
         <v>EE. UU.</v>
@@ -2257,7 +2251,7 @@
       <c r="F7" s="29">
         <v>0</v>
       </c>
-      <c r="H7" s="89"/>
+      <c r="H7" s="82"/>
       <c r="I7" s="56" t="str">
         <f>Grupos!B7</f>
         <v>Costa Rica</v>
@@ -2316,7 +2310,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="89"/>
+      <c r="A8" s="82"/>
       <c r="B8" s="11" t="str">
         <f>Grupos!B6</f>
         <v>Colombia</v>
@@ -2332,7 +2326,7 @@
       <c r="F8" s="29">
         <v>1</v>
       </c>
-      <c r="H8" s="90"/>
+      <c r="H8" s="83"/>
       <c r="I8" s="59" t="str">
         <f>Grupos!B8</f>
         <v>Paraguay</v>
@@ -2391,7 +2385,7 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="89"/>
+      <c r="A9" s="82"/>
       <c r="B9" s="11" t="str">
         <f>Grupos!B5</f>
         <v>EE. UU.</v>
@@ -2409,7 +2403,7 @@
       </c>
     </row>
     <row r="10" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="90"/>
+      <c r="A10" s="83"/>
       <c r="B10" s="15" t="str">
         <f>Grupos!B6</f>
         <v>Colombia</v>
@@ -2432,13 +2426,13 @@
     </row>
     <row r="11" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
       <c r="I12" s="7" t="s">
         <v>14</v>
       </c>
@@ -2489,7 +2483,7 @@
       </c>
     </row>
     <row r="13" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="81" t="s">
         <v>47</v>
       </c>
       <c r="B13" s="17" t="str">
@@ -2507,7 +2501,7 @@
       <c r="F13" s="34">
         <v>0</v>
       </c>
-      <c r="H13" s="88" t="s">
+      <c r="H13" s="81" t="s">
         <v>22</v>
       </c>
       <c r="I13" s="53" t="str">
@@ -2568,7 +2562,7 @@
       </c>
     </row>
     <row r="14" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="91"/>
+      <c r="A14" s="84"/>
       <c r="B14" s="20" t="str">
         <f>Grupos!D7</f>
         <v>Haiti</v>
@@ -2584,7 +2578,7 @@
       <c r="F14" s="35">
         <v>1</v>
       </c>
-      <c r="H14" s="89"/>
+      <c r="H14" s="82"/>
       <c r="I14" s="56" t="str">
         <f>Grupos!D6</f>
         <v>Ecuador</v>
@@ -2643,7 +2637,7 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="91"/>
+      <c r="A15" s="84"/>
       <c r="B15" s="20" t="str">
         <f>Grupos!D5</f>
         <v>Brasil</v>
@@ -2659,7 +2653,7 @@
       <c r="F15" s="35">
         <v>1</v>
       </c>
-      <c r="H15" s="89"/>
+      <c r="H15" s="82"/>
       <c r="I15" s="56" t="str">
         <f>Grupos!D7</f>
         <v>Haiti</v>
@@ -2718,7 +2712,7 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="91"/>
+      <c r="A16" s="84"/>
       <c r="B16" s="20" t="str">
         <f>Grupos!D6</f>
         <v>Ecuador</v>
@@ -2734,7 +2728,7 @@
       <c r="F16" s="35">
         <v>2</v>
       </c>
-      <c r="H16" s="90"/>
+      <c r="H16" s="83"/>
       <c r="I16" s="59" t="str">
         <f>Grupos!D8</f>
         <v>Perú</v>
@@ -2793,7 +2787,7 @@
       </c>
     </row>
     <row r="17" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="91"/>
+      <c r="A17" s="84"/>
       <c r="B17" s="20" t="str">
         <f>Grupos!D5</f>
         <v>Brasil</v>
@@ -2811,7 +2805,7 @@
       </c>
     </row>
     <row r="18" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="92"/>
+      <c r="A18" s="85"/>
       <c r="B18" s="19" t="str">
         <f>Grupos!D6</f>
         <v>Ecuador</v>
@@ -2830,13 +2824,13 @@
     </row>
     <row r="19" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="86" t="s">
+      <c r="B20" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
       <c r="I20" s="7" t="s">
         <v>14</v>
       </c>
@@ -2887,7 +2881,7 @@
       </c>
     </row>
     <row r="21" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="86" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="22" t="str">
@@ -2905,7 +2899,7 @@
       <c r="F21" s="34">
         <v>1</v>
       </c>
-      <c r="H21" s="88" t="s">
+      <c r="H21" s="81" t="s">
         <v>21</v>
       </c>
       <c r="I21" s="53" t="str">
@@ -2966,7 +2960,7 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="94"/>
+      <c r="A22" s="87"/>
       <c r="B22" s="24" t="str">
         <f>Grupos!F7</f>
         <v>Jamaica</v>
@@ -2982,7 +2976,7 @@
       <c r="F22" s="35">
         <v>1</v>
       </c>
-      <c r="H22" s="89"/>
+      <c r="H22" s="82"/>
       <c r="I22" s="56" t="str">
         <f>Grupos!F6</f>
         <v>Uruguay</v>
@@ -3041,7 +3035,7 @@
       </c>
     </row>
     <row r="23" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="94"/>
+      <c r="A23" s="87"/>
       <c r="B23" s="24" t="str">
         <f>Grupos!F5</f>
         <v>Mexico</v>
@@ -3057,7 +3051,7 @@
       <c r="F23" s="35">
         <v>0</v>
       </c>
-      <c r="H23" s="89"/>
+      <c r="H23" s="82"/>
       <c r="I23" s="56" t="str">
         <f>Grupos!F7</f>
         <v>Jamaica</v>
@@ -3116,7 +3110,7 @@
       </c>
     </row>
     <row r="24" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="94"/>
+      <c r="A24" s="87"/>
       <c r="B24" s="24" t="str">
         <f>Grupos!F6</f>
         <v>Uruguay</v>
@@ -3132,7 +3126,7 @@
       <c r="F24" s="35">
         <v>1</v>
       </c>
-      <c r="H24" s="90"/>
+      <c r="H24" s="83"/>
       <c r="I24" s="59" t="str">
         <f>Grupos!F8</f>
         <v>Venezuela</v>
@@ -3191,7 +3185,7 @@
       </c>
     </row>
     <row r="25" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="94"/>
+      <c r="A25" s="87"/>
       <c r="B25" s="24" t="str">
         <f>Grupos!F5</f>
         <v>Mexico</v>
@@ -3209,7 +3203,7 @@
       </c>
     </row>
     <row r="26" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="95"/>
+      <c r="A26" s="88"/>
       <c r="B26" s="23" t="str">
         <f>Grupos!F6</f>
         <v>Uruguay</v>
@@ -3228,13 +3222,13 @@
     </row>
     <row r="27" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="86" t="s">
+      <c r="B28" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="87"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
       <c r="I28" s="7" t="s">
         <v>14</v>
       </c>
@@ -3285,7 +3279,7 @@
       </c>
     </row>
     <row r="29" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="86" t="s">
         <v>48</v>
       </c>
       <c r="B29" s="22" t="str">
@@ -3303,7 +3297,7 @@
       <c r="F29" s="34">
         <v>1</v>
       </c>
-      <c r="H29" s="88" t="s">
+      <c r="H29" s="81" t="s">
         <v>23</v>
       </c>
       <c r="I29" s="53" t="str">
@@ -3364,7 +3358,7 @@
       </c>
     </row>
     <row r="30" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="94"/>
+      <c r="A30" s="87"/>
       <c r="B30" s="24" t="str">
         <f>Grupos!H7</f>
         <v>Panamá</v>
@@ -3380,7 +3374,7 @@
       <c r="F30" s="35">
         <v>1</v>
       </c>
-      <c r="H30" s="89"/>
+      <c r="H30" s="82"/>
       <c r="I30" s="56" t="str">
         <f>Grupos!H6</f>
         <v>Chile</v>
@@ -3439,7 +3433,7 @@
       </c>
     </row>
     <row r="31" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="94"/>
+      <c r="A31" s="87"/>
       <c r="B31" s="24" t="str">
         <f>Grupos!H5</f>
         <v>Argentina</v>
@@ -3455,7 +3449,7 @@
       <c r="F31" s="35">
         <v>0</v>
       </c>
-      <c r="H31" s="89"/>
+      <c r="H31" s="82"/>
       <c r="I31" s="56" t="str">
         <f>Grupos!H7</f>
         <v>Panamá</v>
@@ -3514,7 +3508,7 @@
       </c>
     </row>
     <row r="32" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="94"/>
+      <c r="A32" s="87"/>
       <c r="B32" s="24" t="str">
         <f>Grupos!H6</f>
         <v>Chile</v>
@@ -3530,7 +3524,7 @@
       <c r="F32" s="35">
         <v>1</v>
       </c>
-      <c r="H32" s="90"/>
+      <c r="H32" s="83"/>
       <c r="I32" s="59" t="str">
         <f>Grupos!H8</f>
         <v>Bolivia</v>
@@ -3589,7 +3583,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="94"/>
+      <c r="A33" s="87"/>
       <c r="B33" s="24" t="str">
         <f>Grupos!H5</f>
         <v>Argentina</v>
@@ -3607,7 +3601,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="95"/>
+      <c r="A34" s="88"/>
       <c r="B34" s="23" t="str">
         <f>Grupos!H6</f>
         <v>Chile</v>
@@ -3627,6 +3621,12 @@
     <row r="35" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="H2:P2"/>
+    <mergeCell ref="H1:P1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A13:A18"/>
     <mergeCell ref="A21:A26"/>
@@ -3637,12 +3637,6 @@
     <mergeCell ref="H29:H32"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="B20:F20"/>
-    <mergeCell ref="H2:P2"/>
-    <mergeCell ref="H1:P1"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B4:F4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -3666,7 +3660,7 @@
   <dimension ref="B1:T22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3691,59 +3685,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="125"/>
-      <c r="K1" s="116" t="s">
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="108"/>
+      <c r="K1" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="118"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="99"/>
     </row>
     <row r="2" spans="2:20" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K2" s="131" t="str">
+      <c r="K2" s="129" t="str">
         <f>IF(E17&gt;H17,C17,IF(E17&lt;H17,F17,""))</f>
-        <v/>
-      </c>
-      <c r="L2" s="132"/>
-      <c r="M2" s="132"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="132"/>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="133"/>
+        <v>Chile</v>
+      </c>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="131"/>
     </row>
     <row r="3" spans="2:20" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="120" t="s">
+      <c r="C3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="122"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
-      <c r="N3" s="135"/>
-      <c r="O3" s="135"/>
-      <c r="P3" s="135"/>
-      <c r="Q3" s="136"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="105"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="133"/>
+      <c r="N3" s="133"/>
+      <c r="O3" s="133"/>
+      <c r="P3" s="133"/>
+      <c r="Q3" s="134"/>
     </row>
     <row r="4" spans="2:20" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="98"/>
+      <c r="B4" s="110"/>
       <c r="C4" s="44" t="s">
         <v>31</v>
       </c>
@@ -3764,17 +3758,17 @@
       <c r="H4" s="65">
         <v>1</v>
       </c>
-      <c r="K4" s="134"/>
-      <c r="L4" s="135"/>
-      <c r="M4" s="135"/>
-      <c r="N4" s="135"/>
-      <c r="O4" s="135"/>
-      <c r="P4" s="135"/>
-      <c r="Q4" s="136"/>
+      <c r="K4" s="132"/>
+      <c r="L4" s="133"/>
+      <c r="M4" s="133"/>
+      <c r="N4" s="133"/>
+      <c r="O4" s="133"/>
+      <c r="P4" s="133"/>
+      <c r="Q4" s="134"/>
       <c r="T4" s="37"/>
     </row>
-    <row r="5" spans="2:20" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="98"/>
+    <row r="5" spans="2:20" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="110"/>
       <c r="C5" s="45" t="s">
         <v>29</v>
       </c>
@@ -3795,16 +3789,16 @@
       <c r="H5" s="66">
         <v>4</v>
       </c>
-      <c r="K5" s="134"/>
-      <c r="L5" s="135"/>
-      <c r="M5" s="135"/>
-      <c r="N5" s="135"/>
-      <c r="O5" s="135"/>
-      <c r="P5" s="135"/>
-      <c r="Q5" s="136"/>
+      <c r="K5" s="135"/>
+      <c r="L5" s="136"/>
+      <c r="M5" s="136"/>
+      <c r="N5" s="136"/>
+      <c r="O5" s="136"/>
+      <c r="P5" s="136"/>
+      <c r="Q5" s="137"/>
     </row>
     <row r="6" spans="2:20" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="98"/>
+      <c r="B6" s="110"/>
       <c r="C6" s="45" t="s">
         <v>30</v>
       </c>
@@ -3825,17 +3819,17 @@
       <c r="H6" s="66">
         <v>1</v>
       </c>
-      <c r="K6" s="137"/>
-      <c r="L6" s="138"/>
-      <c r="M6" s="138"/>
-      <c r="N6" s="138"/>
-      <c r="O6" s="138"/>
-      <c r="P6" s="138"/>
-      <c r="Q6" s="139"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
       <c r="T6" s="37"/>
     </row>
     <row r="7" spans="2:20" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="97"/>
+      <c r="B7" s="111"/>
       <c r="C7" s="46" t="s">
         <v>32</v>
       </c>
@@ -3856,96 +3850,103 @@
       <c r="H7" s="67">
         <v>7</v>
       </c>
+      <c r="K7" s="97" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="98"/>
+      <c r="O7" s="98"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="99"/>
     </row>
     <row r="8" spans="2:20" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K8" s="105" t="s">
-        <v>55</v>
-      </c>
-      <c r="L8" s="106"/>
-      <c r="M8" s="106"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="106"/>
-      <c r="Q8" s="107"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="118"/>
+      <c r="M8" s="118"/>
+      <c r="N8" s="118"/>
+      <c r="O8" s="118"/>
+      <c r="P8" s="118"/>
+      <c r="Q8" s="119"/>
     </row>
     <row r="9" spans="2:20" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="122"/>
-      <c r="K9" s="108"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="110"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="105"/>
+      <c r="K9" s="120" t="str">
+        <f>IF(E17&gt;H17,F17,IF(E17&lt;H17,C17,""))</f>
+        <v>Argentina</v>
+      </c>
+      <c r="L9" s="121"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="121"/>
+      <c r="P9" s="121"/>
+      <c r="Q9" s="122"/>
       <c r="R9" s="37"/>
       <c r="S9" s="37"/>
     </row>
     <row r="10" spans="2:20" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="98"/>
-      <c r="C10" s="126" t="str">
+      <c r="B10" s="110"/>
+      <c r="C10" s="112" t="str">
         <f>IF(E4&gt;H4,D4,IF(E4&lt;H4,G4,""))</f>
         <v>EE. UU.</v>
       </c>
-      <c r="D10" s="119"/>
+      <c r="D10" s="102"/>
       <c r="E10" s="41">
         <v>0</v>
       </c>
-      <c r="F10" s="119" t="str">
+      <c r="F10" s="102" t="str">
         <f>IF(E6&gt;H6,D6,IF(E6&lt;H6,G6,""))</f>
         <v>Argentina</v>
       </c>
-      <c r="G10" s="119"/>
+      <c r="G10" s="102"/>
       <c r="H10" s="65">
         <v>4</v>
       </c>
-      <c r="K10" s="99" t="str">
-        <f>IF(E17&gt;H17,C17,IF(E17&lt;H17,F17,""))</f>
-        <v/>
-      </c>
-      <c r="L10" s="100"/>
-      <c r="M10" s="100"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100"/>
-      <c r="P10" s="100"/>
-      <c r="Q10" s="101"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="124"/>
+      <c r="M10" s="124"/>
+      <c r="N10" s="124"/>
+      <c r="O10" s="124"/>
+      <c r="P10" s="124"/>
+      <c r="Q10" s="125"/>
       <c r="R10" s="37"/>
       <c r="S10" s="37"/>
     </row>
     <row r="11" spans="2:20" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="97"/>
-      <c r="C11" s="127" t="str">
+      <c r="B11" s="111"/>
+      <c r="C11" s="113" t="str">
         <f>IF(E5&gt;H5,D5,IF(E5&lt;H5,G5,""))</f>
         <v>Colombia</v>
       </c>
-      <c r="D11" s="128"/>
+      <c r="D11" s="114"/>
       <c r="E11" s="48">
         <v>0</v>
       </c>
-      <c r="F11" s="128" t="str">
+      <c r="F11" s="114" t="str">
         <f>IF(E7&gt;H7,D7,IF(E7&lt;H7,G7,""))</f>
         <v>Chile</v>
       </c>
-      <c r="G11" s="128"/>
+      <c r="G11" s="114"/>
       <c r="H11" s="67">
         <v>2</v>
       </c>
-      <c r="K11" s="102"/>
-      <c r="L11" s="103"/>
-      <c r="M11" s="103"/>
-      <c r="N11" s="103"/>
-      <c r="O11" s="103"/>
-      <c r="P11" s="103"/>
-      <c r="Q11" s="104"/>
+      <c r="K11" s="126"/>
+      <c r="L11" s="127"/>
+      <c r="M11" s="127"/>
+      <c r="N11" s="127"/>
+      <c r="O11" s="127"/>
+      <c r="P11" s="127"/>
+      <c r="Q11" s="128"/>
       <c r="R11" s="37"/>
       <c r="S11" s="37"/>
     </row>
@@ -3954,108 +3955,116 @@
       <c r="S12" s="37"/>
     </row>
     <row r="13" spans="2:20" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="129" t="s">
+      <c r="B13" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="120" t="s">
+      <c r="C13" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="K13" s="105" t="s">
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="105"/>
+      <c r="K13" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="L13" s="106"/>
-      <c r="M13" s="106"/>
-      <c r="N13" s="106"/>
-      <c r="O13" s="106"/>
-      <c r="P13" s="106"/>
-      <c r="Q13" s="107"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="98"/>
+      <c r="N13" s="98"/>
+      <c r="O13" s="98"/>
+      <c r="P13" s="98"/>
+      <c r="Q13" s="99"/>
       <c r="R13" s="37"/>
       <c r="S13" s="37"/>
     </row>
     <row r="14" spans="2:20" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="130"/>
-      <c r="C14" s="114" t="str">
+      <c r="B14" s="116"/>
+      <c r="C14" s="100" t="str">
         <f>IF(E10&lt;H10,C10,IF(E10&gt;H10,F10,""))</f>
         <v>EE. UU.</v>
       </c>
-      <c r="D14" s="115"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="115" t="str">
+      <c r="D14" s="101"/>
+      <c r="E14" s="50">
+        <v>0</v>
+      </c>
+      <c r="F14" s="101" t="str">
         <f>IF(E11&lt;H11,C11,IF(E11&gt;H11,F11,""))</f>
         <v>Colombia</v>
       </c>
-      <c r="G14" s="115"/>
-      <c r="H14" s="68"/>
-      <c r="K14" s="108"/>
-      <c r="L14" s="109"/>
-      <c r="M14" s="109"/>
-      <c r="N14" s="109"/>
-      <c r="O14" s="109"/>
-      <c r="P14" s="109"/>
-      <c r="Q14" s="110"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="68">
+        <v>1</v>
+      </c>
+      <c r="K14" s="117"/>
+      <c r="L14" s="118"/>
+      <c r="M14" s="118"/>
+      <c r="N14" s="118"/>
+      <c r="O14" s="118"/>
+      <c r="P14" s="118"/>
+      <c r="Q14" s="119"/>
     </row>
     <row r="15" spans="2:20" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K15" s="99" t="str">
+      <c r="K15" s="120" t="str">
         <f>IF(E14&gt;H14,C14,IF(E14&lt;H14,F14,""))</f>
-        <v/>
-      </c>
-      <c r="L15" s="100"/>
-      <c r="M15" s="100"/>
-      <c r="N15" s="100"/>
-      <c r="O15" s="100"/>
-      <c r="P15" s="100"/>
-      <c r="Q15" s="101"/>
+        <v>Colombia</v>
+      </c>
+      <c r="L15" s="121"/>
+      <c r="M15" s="121"/>
+      <c r="N15" s="121"/>
+      <c r="O15" s="121"/>
+      <c r="P15" s="121"/>
+      <c r="Q15" s="122"/>
       <c r="R15" s="37"/>
       <c r="S15" s="37"/>
     </row>
     <row r="16" spans="2:20" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="96" t="s">
+      <c r="B16" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="120" t="s">
+      <c r="C16" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="121"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122"/>
-      <c r="K16" s="111"/>
-      <c r="L16" s="112"/>
-      <c r="M16" s="112"/>
-      <c r="N16" s="112"/>
-      <c r="O16" s="112"/>
-      <c r="P16" s="112"/>
-      <c r="Q16" s="113"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="105"/>
+      <c r="K16" s="123"/>
+      <c r="L16" s="124"/>
+      <c r="M16" s="124"/>
+      <c r="N16" s="124"/>
+      <c r="O16" s="124"/>
+      <c r="P16" s="124"/>
+      <c r="Q16" s="125"/>
       <c r="R16" s="37"/>
       <c r="S16" s="37"/>
     </row>
     <row r="17" spans="2:17" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="97"/>
-      <c r="C17" s="114" t="str">
+      <c r="B17" s="111"/>
+      <c r="C17" s="100" t="str">
         <f>IF(E10&gt;H10,C10,IF(E10&lt;H10,F10,""))</f>
         <v>Argentina</v>
       </c>
-      <c r="D17" s="115"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="115" t="str">
+      <c r="D17" s="101"/>
+      <c r="E17" s="50">
+        <v>2</v>
+      </c>
+      <c r="F17" s="101" t="str">
         <f>IF(E11&gt;H11,C11,IF(E11&lt;H11,F11,""))</f>
         <v>Chile</v>
       </c>
-      <c r="G17" s="115"/>
-      <c r="H17" s="68"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="103"/>
-      <c r="M17" s="103"/>
-      <c r="N17" s="103"/>
-      <c r="O17" s="103"/>
-      <c r="P17" s="103"/>
-      <c r="Q17" s="104"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="68">
+        <v>4</v>
+      </c>
+      <c r="K17" s="126"/>
+      <c r="L17" s="127"/>
+      <c r="M17" s="127"/>
+      <c r="N17" s="127"/>
+      <c r="O17" s="127"/>
+      <c r="P17" s="127"/>
+      <c r="Q17" s="128"/>
     </row>
     <row r="18" spans="2:17" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4063,6 +4072,13 @@
     <row r="22" spans="2:17" ht="25.15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="K13:Q14"/>
+    <mergeCell ref="K15:Q17"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="K2:Q5"/>
+    <mergeCell ref="K7:Q8"/>
+    <mergeCell ref="K9:Q11"/>
     <mergeCell ref="K1:Q1"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="F17:G17"/>
@@ -4077,15 +4093,8 @@
     <mergeCell ref="C13:H13"/>
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="B13:B14"/>
-    <mergeCell ref="K2:Q6"/>
-    <mergeCell ref="K8:Q9"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="B3:B7"/>
-    <mergeCell ref="K10:Q11"/>
-    <mergeCell ref="K13:Q14"/>
-    <mergeCell ref="K15:Q17"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F14:G14"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
